--- a/teaching/traditional_assets/database/data/thailand/thailand_semiconductor.xlsx
+++ b/teaching/traditional_assets/database/data/thailand/thailand_semiconductor.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="set_sict" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +584,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,115 +593,118 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.117</v>
+        <v>0.221</v>
       </c>
       <c r="G2">
-        <v>0.1408695652173913</v>
+        <v>0.04319066147859922</v>
       </c>
       <c r="H2">
-        <v>0.1408695652173913</v>
+        <v>0.01101167315175097</v>
       </c>
       <c r="I2">
-        <v>-0.09205105055464355</v>
+        <v>-0.04808936286894658</v>
       </c>
       <c r="J2">
-        <v>-0.09205105055464355</v>
+        <v>-0.04808936286894658</v>
       </c>
       <c r="K2">
-        <v>4.17</v>
+        <v>-5.630000000000001</v>
       </c>
       <c r="L2">
-        <v>0.3626086956521739</v>
+        <v>-0.2190661478599222</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.006162294081757169</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-0.1793960923623446</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.006162294081757169</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-0.1793960923623446</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
       <c r="U2">
-        <v>1.63</v>
+        <v>15.38</v>
       </c>
       <c r="V2">
-        <v>0.1304</v>
+        <v>0.09383770591824284</v>
       </c>
       <c r="W2">
-        <v>0.2410404624277457</v>
+        <v>-0.02440177089097953</v>
       </c>
       <c r="X2">
-        <v>0.1507345466029779</v>
+        <v>0.103715578802076</v>
       </c>
       <c r="Y2">
-        <v>0.09030591582476774</v>
+        <v>-0.1281173496930555</v>
       </c>
       <c r="Z2">
-        <v>0.6227009000534161</v>
+        <v>1.167731544684842</v>
       </c>
       <c r="AA2">
-        <v>-0.05732027203123904</v>
+        <v>0.003112711099524074</v>
       </c>
       <c r="AB2">
-        <v>0.1231179488685112</v>
+        <v>0.09951784133285259</v>
       </c>
       <c r="AC2">
-        <v>-0.1804382208997502</v>
+        <v>-0.09640513023332851</v>
       </c>
       <c r="AD2">
-        <v>3.47</v>
+        <v>11.27</v>
       </c>
       <c r="AE2">
-        <v>0.7379354068920045</v>
+        <v>1.994483128659637</v>
       </c>
       <c r="AF2">
-        <v>4.207935406892005</v>
+        <v>13.26448312865964</v>
       </c>
       <c r="AG2">
-        <v>2.577935406892005</v>
+        <v>-2.115516871340363</v>
       </c>
       <c r="AH2">
-        <v>0.2518525062741286</v>
+        <v>0.074871006278537</v>
       </c>
       <c r="AI2">
-        <v>0.1146328541839472</v>
+        <v>0.2103320676013215</v>
       </c>
       <c r="AJ2">
-        <v>0.1709740317440046</v>
+        <v>-0.01307614197869638</v>
       </c>
       <c r="AK2">
-        <v>0.07349165157495273</v>
+        <v>-0.04436489047458882</v>
       </c>
       <c r="AL2">
-        <v>0.242</v>
+        <v>0.532</v>
       </c>
       <c r="AM2">
-        <v>0.08799999999999999</v>
+        <v>0.506</v>
       </c>
       <c r="AN2">
-        <v>6.724806201550388</v>
+        <v>11.1253701875617</v>
       </c>
       <c r="AO2">
-        <v>-5.950413223140496</v>
+        <v>-3.721804511278195</v>
       </c>
       <c r="AP2">
-        <v>4.995998850565901</v>
+        <v>-2.088368086219508</v>
       </c>
       <c r="AQ2">
-        <v>-16.36363636363636</v>
+        <v>-3.91304347826087</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +715,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Electronics Industry Public Company Limited (SET:EIC)</t>
+          <t>Silicon Craft Technology Public Company Limited (SET:SICT)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -718,116 +723,8962 @@
           <t>Semiconductor</t>
         </is>
       </c>
+      <c r="G3">
+        <v>0.1618095238095238</v>
+      </c>
+      <c r="H3">
+        <v>0.08304761904761905</v>
+      </c>
+      <c r="I3">
+        <v>0.1109154745175882</v>
+      </c>
+      <c r="J3">
+        <v>0.1109154745175882</v>
+      </c>
+      <c r="K3">
+        <v>1.1</v>
+      </c>
+      <c r="L3">
+        <v>0.1047619047619048</v>
+      </c>
+      <c r="M3">
+        <v>1.01</v>
+      </c>
+      <c r="N3">
+        <v>0.01866913123844732</v>
+      </c>
+      <c r="O3">
+        <v>0.9181818181818181</v>
+      </c>
+      <c r="P3">
+        <v>1.01</v>
+      </c>
+      <c r="Q3">
+        <v>0.01866913123844732</v>
+      </c>
+      <c r="R3">
+        <v>0.9181818181818181</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>2.98</v>
+      </c>
+      <c r="V3">
+        <v>0.05508317929759704</v>
+      </c>
+      <c r="W3">
+        <v>0.158273381294964</v>
+      </c>
+      <c r="X3">
+        <v>0.100371417576197</v>
+      </c>
+      <c r="Y3">
+        <v>0.05790196371876705</v>
+      </c>
+      <c r="Z3">
+        <v>1.498728738069919</v>
+      </c>
+      <c r="AA3">
+        <v>0.1662322091561712</v>
+      </c>
+      <c r="AB3">
+        <v>0.09918771232016058</v>
+      </c>
+      <c r="AC3">
+        <v>0.06704449683601058</v>
+      </c>
+      <c r="AD3">
+        <v>0.47</v>
+      </c>
+      <c r="AE3">
+        <v>0.5319375878266206</v>
+      </c>
+      <c r="AF3">
+        <v>1.001937587826621</v>
+      </c>
+      <c r="AG3">
+        <v>-1.978062412173379</v>
+      </c>
+      <c r="AH3">
+        <v>0.0181833458438669</v>
+      </c>
+      <c r="AI3">
+        <v>0.0841827291088645</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.03795066921371256</v>
+      </c>
+      <c r="AK3">
+        <v>-0.2217077168161669</v>
+      </c>
+      <c r="AL3">
+        <v>0.027</v>
+      </c>
+      <c r="AM3">
+        <v>0.026</v>
+      </c>
+      <c r="AN3">
+        <v>0.3697875688434303</v>
+      </c>
+      <c r="AO3">
+        <v>38.51851851851852</v>
+      </c>
+      <c r="AP3">
+        <v>-1.556304022166309</v>
+      </c>
+      <c r="AQ3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Wow Factor Public Company Limited (SET:W)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Semiconductor</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>0.221</v>
+      </c>
+      <c r="G4">
+        <v>-0.03875</v>
+      </c>
+      <c r="H4">
+        <v>-0.03875</v>
+      </c>
+      <c r="I4">
+        <v>-0.1579282308004344</v>
+      </c>
+      <c r="J4">
+        <v>-0.1579282308004344</v>
+      </c>
+      <c r="K4">
+        <v>-6.73</v>
+      </c>
+      <c r="L4">
+        <v>-0.4427631578947369</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>12.4</v>
+      </c>
+      <c r="V4">
+        <v>0.1129326047358834</v>
+      </c>
+      <c r="W4">
+        <v>-0.2070769230769231</v>
+      </c>
+      <c r="X4">
+        <v>0.1070597400279551</v>
+      </c>
+      <c r="Y4">
+        <v>-0.3141366631048782</v>
+      </c>
+      <c r="Z4">
+        <v>1.013161397086219</v>
+      </c>
+      <c r="AA4">
+        <v>-0.160006786957123</v>
+      </c>
+      <c r="AB4">
+        <v>0.0998479703455446</v>
+      </c>
+      <c r="AC4">
+        <v>-0.2598547573026676</v>
+      </c>
+      <c r="AD4">
+        <v>10.8</v>
+      </c>
+      <c r="AE4">
+        <v>1.462545540833016</v>
+      </c>
+      <c r="AF4">
+        <v>12.26254554083302</v>
+      </c>
+      <c r="AG4">
+        <v>-0.1374544591669835</v>
+      </c>
+      <c r="AH4">
+        <v>0.1004611651059733</v>
+      </c>
+      <c r="AI4">
+        <v>0.2396781749462844</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.001253431228402428</v>
+      </c>
+      <c r="AK4">
+        <v>-0.003546063790423336</v>
+      </c>
+      <c r="AL4">
+        <v>0.505</v>
+      </c>
+      <c r="AM4">
+        <v>0.48</v>
+      </c>
+      <c r="AN4">
+        <v>-41.86046511627909</v>
+      </c>
+      <c r="AO4">
+        <v>-5.98019801980198</v>
+      </c>
+      <c r="AP4">
+        <v>0.5327692215774557</v>
+      </c>
+      <c r="AQ4">
+        <v>-6.291666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Silicon Craft Technology Public Company Limited (SET:SICT)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SET:SICT</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Semiconductor</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.0181833458438669</v>
+      </c>
+      <c r="F2">
+        <v>0.22</v>
+      </c>
+      <c r="G2">
+        <v>54.1</v>
+      </c>
+      <c r="H2">
+        <v>44.2646381386087</v>
+      </c>
+      <c r="I2">
+        <v>52.1219375878266</v>
+      </c>
+      <c r="J2">
+        <v>53.4070644079306</v>
+      </c>
+      <c r="K2">
+        <v>1.00193758782662</v>
+      </c>
+      <c r="L2">
+        <v>12.1224262693219</v>
+      </c>
+      <c r="M2">
+        <v>0.0991877123201606</v>
+      </c>
+      <c r="N2">
+        <v>0.0970247567040628</v>
+      </c>
+      <c r="O2">
+        <v>0.0352730981469555</v>
+      </c>
+      <c r="P2">
+        <v>0.01808</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.100371417576197</v>
+      </c>
+      <c r="T2">
+        <v>0.11929122654367</v>
+      </c>
+      <c r="U2">
+        <v>1.45330637207117</v>
+      </c>
+      <c r="V2">
+        <v>1.75522633403721</v>
+      </c>
+      <c r="W2">
+        <v>4.639247688841041</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>54.1</v>
+      </c>
+      <c r="AB2">
+        <v>0.06266498195174562</v>
+      </c>
+      <c r="AC2">
+        <v>0.04409137268369437</v>
+      </c>
+      <c r="AD2">
+        <v>0.2</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1.271</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0.2769999999999999</v>
+      </c>
+      <c r="AJ2">
+        <v>1.001937587826621</v>
+      </c>
+      <c r="AK2">
+        <v>0.47</v>
+      </c>
+      <c r="AL2">
+        <v>0.027</v>
+      </c>
+      <c r="AM2">
+        <v>0.47</v>
+      </c>
+      <c r="AN2">
+        <v>2.98</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.09904179571554687</v>
+      </c>
+      <c r="C2">
+        <v>55.18668579347663</v>
+      </c>
+      <c r="D2">
+        <v>52.20668579347664</v>
+      </c>
+      <c r="E2">
+        <v>-1.001937587826621</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2.98</v>
+      </c>
+      <c r="H2">
+        <v>54.1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1.271</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1.271</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1.271</v>
+      </c>
+      <c r="O2">
+        <v>0.2542</v>
+      </c>
+      <c r="P2">
+        <v>1.0168</v>
+      </c>
+      <c r="Q2">
+        <v>1.0168</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.09904179571554687</v>
+      </c>
+      <c r="T2">
+        <v>1.432088431536634</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.2</v>
+      </c>
+      <c r="W2">
+        <v>0.01296</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.09889891212411576</v>
+      </c>
+      <c r="C3">
+        <v>54.71892053961889</v>
+      </c>
       <c r="D3">
-        <v>0.117</v>
+        <v>52.28993991549716</v>
+      </c>
+      <c r="E3">
+        <v>-0.4509182119483544</v>
+      </c>
+      <c r="F3">
+        <v>0.5510193758782662</v>
       </c>
       <c r="G3">
-        <v>0.1408695652173913</v>
+        <v>2.98</v>
       </c>
       <c r="H3">
-        <v>0.1408695652173913</v>
+        <v>54.1</v>
       </c>
       <c r="I3">
-        <v>-0.09205105055464355</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.09205105055464355</v>
+        <v>1.271</v>
       </c>
       <c r="K3">
-        <v>4.17</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3626086956521739</v>
+        <v>1.271</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>0.008926513889227912</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>1.262073486110772</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.2524146972221545</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>1.009658788888618</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>1.009658788888618</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.09976698194355128</v>
+      </c>
+      <c r="T3">
+        <v>1.443660863306627</v>
       </c>
       <c r="U3">
-        <v>1.63</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
-        <v>0.1304</v>
+        <v>0.2</v>
       </c>
       <c r="W3">
-        <v>0.2410404624277457</v>
-      </c>
-      <c r="X3">
-        <v>0.1507345466029779</v>
+        <v>0.01296</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
       </c>
       <c r="Y3">
-        <v>0.09030591582476774</v>
+        <v>142.3848117834424</v>
       </c>
       <c r="Z3">
-        <v>0.6227009000534161</v>
-      </c>
-      <c r="AA3">
-        <v>-0.05732027203123904</v>
-      </c>
-      <c r="AB3">
-        <v>0.1231179488685112</v>
-      </c>
-      <c r="AC3">
-        <v>-0.1804382208997502</v>
-      </c>
-      <c r="AD3">
-        <v>3.47</v>
-      </c>
-      <c r="AE3">
-        <v>0.7379354068920045</v>
-      </c>
-      <c r="AF3">
-        <v>4.207935406892005</v>
-      </c>
-      <c r="AG3">
-        <v>2.577935406892005</v>
-      </c>
-      <c r="AH3">
-        <v>0.2518525062741286</v>
-      </c>
-      <c r="AI3">
-        <v>0.1146328541839472</v>
-      </c>
-      <c r="AJ3">
-        <v>0.1709740317440046</v>
-      </c>
-      <c r="AK3">
-        <v>0.07349165157495273</v>
-      </c>
-      <c r="AL3">
-        <v>0.242</v>
-      </c>
-      <c r="AM3">
-        <v>0.08799999999999999</v>
-      </c>
-      <c r="AN3">
-        <v>6.724806201550388</v>
-      </c>
-      <c r="AO3">
-        <v>-5.950413223140496</v>
-      </c>
-      <c r="AP3">
-        <v>4.995998850565901</v>
-      </c>
-      <c r="AQ3">
-        <v>-16.36363636363636</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.09875602853268468</v>
+      </c>
+      <c r="C4">
+        <v>54.2514212409606</v>
+      </c>
+      <c r="D4">
+        <v>52.37345999271714</v>
+      </c>
+      <c r="E4">
+        <v>0.1001011639299119</v>
+      </c>
+      <c r="F4">
+        <v>1.102038751756532</v>
+      </c>
+      <c r="G4">
+        <v>2.98</v>
+      </c>
+      <c r="H4">
+        <v>54.1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1.271</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1.271</v>
+      </c>
+      <c r="M4">
+        <v>0.01785302777845582</v>
+      </c>
+      <c r="N4">
+        <v>1.253146972221544</v>
+      </c>
+      <c r="O4">
+        <v>0.2506293944443089</v>
+      </c>
+      <c r="P4">
+        <v>1.002517577777235</v>
+      </c>
+      <c r="Q4">
+        <v>1.002517577777235</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.1005069678904946</v>
+      </c>
+      <c r="T4">
+        <v>1.455469467153559</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.2</v>
+      </c>
+      <c r="W4">
+        <v>0.01296</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>71.19240589172117</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.09861314494125357</v>
+      </c>
+      <c r="C5">
+        <v>53.78418917393094</v>
+      </c>
+      <c r="D5">
+        <v>52.45724730156574</v>
+      </c>
+      <c r="E5">
+        <v>0.6511205398081779</v>
+      </c>
+      <c r="F5">
+        <v>1.653058127634798</v>
+      </c>
+      <c r="G5">
+        <v>2.98</v>
+      </c>
+      <c r="H5">
+        <v>54.1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1.271</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1.271</v>
+      </c>
+      <c r="M5">
+        <v>0.02677954166768373</v>
+      </c>
+      <c r="N5">
+        <v>1.244220458332316</v>
+      </c>
+      <c r="O5">
+        <v>0.2488440916664633</v>
+      </c>
+      <c r="P5">
+        <v>0.9953763666658532</v>
+      </c>
+      <c r="Q5">
+        <v>0.9953763666658532</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.1012622112796429</v>
+      </c>
+      <c r="T5">
+        <v>1.467521547368468</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.2</v>
+      </c>
+      <c r="W5">
+        <v>0.01296</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>47.46160392781412</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.09847026134982249</v>
+      </c>
+      <c r="C6">
+        <v>53.31722562314027</v>
+      </c>
+      <c r="D6">
+        <v>52.54130312665334</v>
+      </c>
+      <c r="E6">
+        <v>1.202139915686444</v>
+      </c>
+      <c r="F6">
+        <v>2.204077503513065</v>
+      </c>
+      <c r="G6">
+        <v>2.98</v>
+      </c>
+      <c r="H6">
+        <v>54.1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1.271</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1.271</v>
+      </c>
+      <c r="M6">
+        <v>0.03570605555691165</v>
+      </c>
+      <c r="N6">
+        <v>1.235293944443088</v>
+      </c>
+      <c r="O6">
+        <v>0.2470587888886177</v>
+      </c>
+      <c r="P6">
+        <v>0.9882351555544707</v>
+      </c>
+      <c r="Q6">
+        <v>0.9882351555544707</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.1020331889060651</v>
+      </c>
+      <c r="T6">
+        <v>1.479824712587855</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.2</v>
+      </c>
+      <c r="W6">
+        <v>0.01296</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>35.59620294586058</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.09832737775839138</v>
+      </c>
+      <c r="C7">
+        <v>52.8505318814459</v>
+      </c>
+      <c r="D7">
+        <v>52.62562876083724</v>
+      </c>
+      <c r="E7">
+        <v>1.753159291564711</v>
+      </c>
+      <c r="F7">
+        <v>2.755096879391331</v>
+      </c>
+      <c r="G7">
+        <v>2.98</v>
+      </c>
+      <c r="H7">
+        <v>54.1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1.271</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1.271</v>
+      </c>
+      <c r="M7">
+        <v>0.04463256944613957</v>
+      </c>
+      <c r="N7">
+        <v>1.226367430553861</v>
+      </c>
+      <c r="O7">
+        <v>0.2452734861107721</v>
+      </c>
+      <c r="P7">
+        <v>0.9810939444430884</v>
+      </c>
+      <c r="Q7">
+        <v>0.9810939444430884</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.102820397640412</v>
+      </c>
+      <c r="T7">
+        <v>1.492386891811861</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.2</v>
+      </c>
+      <c r="W7">
+        <v>0.01296</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>28.47696235668846</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.0981844941669603</v>
+      </c>
+      <c r="C8">
+        <v>52.38410925001828</v>
+      </c>
+      <c r="D8">
+        <v>52.71022550528789</v>
+      </c>
+      <c r="E8">
+        <v>2.304178667442976</v>
+      </c>
+      <c r="F8">
+        <v>3.306116255269597</v>
+      </c>
+      <c r="G8">
+        <v>2.98</v>
+      </c>
+      <c r="H8">
+        <v>54.1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1.271</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1.271</v>
+      </c>
+      <c r="M8">
+        <v>0.05355908333536746</v>
+      </c>
+      <c r="N8">
+        <v>1.217440916664633</v>
+      </c>
+      <c r="O8">
+        <v>0.2434881833329265</v>
+      </c>
+      <c r="P8">
+        <v>0.9739527333317062</v>
+      </c>
+      <c r="Q8">
+        <v>0.9739527333317062</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.1036243554967663</v>
+      </c>
+      <c r="T8">
+        <v>1.505216351444888</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.2</v>
+      </c>
+      <c r="W8">
+        <v>0.01296</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>23.73080196390706</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.0980416105755292</v>
+      </c>
+      <c r="C9">
+        <v>51.917959038408</v>
+      </c>
+      <c r="D9">
+        <v>52.79509466955587</v>
+      </c>
+      <c r="E9">
+        <v>2.855198043321243</v>
+      </c>
+      <c r="F9">
+        <v>3.857135631147864</v>
+      </c>
+      <c r="G9">
+        <v>2.98</v>
+      </c>
+      <c r="H9">
+        <v>54.1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1.271</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1.271</v>
+      </c>
+      <c r="M9">
+        <v>0.06248559722459539</v>
+      </c>
+      <c r="N9">
+        <v>1.208514402775405</v>
+      </c>
+      <c r="O9">
+        <v>0.2417028805550809</v>
+      </c>
+      <c r="P9">
+        <v>0.9668115222203237</v>
+      </c>
+      <c r="Q9">
+        <v>0.9668115222203237</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.1044456027693862</v>
+      </c>
+      <c r="T9">
+        <v>1.518321713435614</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.2</v>
+      </c>
+      <c r="W9">
+        <v>0.01296</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>20.34068739763462</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.09789872698409813</v>
+      </c>
+      <c r="C10">
+        <v>51.45208256461322</v>
+      </c>
+      <c r="D10">
+        <v>52.88023757163936</v>
+      </c>
+      <c r="E10">
+        <v>3.406217419199509</v>
+      </c>
+      <c r="F10">
+        <v>4.40815500702613</v>
+      </c>
+      <c r="G10">
+        <v>2.98</v>
+      </c>
+      <c r="H10">
+        <v>54.1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1.271</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1.271</v>
+      </c>
+      <c r="M10">
+        <v>0.0714121111138233</v>
+      </c>
+      <c r="N10">
+        <v>1.199587888886177</v>
+      </c>
+      <c r="O10">
+        <v>0.2399175777772354</v>
+      </c>
+      <c r="P10">
+        <v>0.9596703111089415</v>
+      </c>
+      <c r="Q10">
+        <v>0.9596703111089415</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.1052847032435849</v>
+      </c>
+      <c r="T10">
+        <v>1.531711974600052</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.2</v>
+      </c>
+      <c r="W10">
+        <v>0.01296</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>17.79810147293029</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.09775584339266703</v>
+      </c>
+      <c r="C11">
+        <v>50.98648115514816</v>
+      </c>
+      <c r="D11">
+        <v>52.96565553805255</v>
+      </c>
+      <c r="E11">
+        <v>3.957236795077775</v>
+      </c>
+      <c r="F11">
+        <v>4.959174382904395</v>
+      </c>
+      <c r="G11">
+        <v>2.98</v>
+      </c>
+      <c r="H11">
+        <v>54.1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1.271</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1.271</v>
+      </c>
+      <c r="M11">
+        <v>0.0803386250030512</v>
+      </c>
+      <c r="N11">
+        <v>1.190661374996949</v>
+      </c>
+      <c r="O11">
+        <v>0.2381322749993898</v>
+      </c>
+      <c r="P11">
+        <v>0.9525290999975592</v>
+      </c>
+      <c r="Q11">
+        <v>0.9525290999975592</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.1061422454864473</v>
+      </c>
+      <c r="T11">
+        <v>1.545396527218653</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.2</v>
+      </c>
+      <c r="W11">
+        <v>0.01296</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>15.82053464260471</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.09761295980123595</v>
+      </c>
+      <c r="C12">
+        <v>50.52115614511167</v>
+      </c>
+      <c r="D12">
+        <v>53.05134990389433</v>
+      </c>
+      <c r="E12">
+        <v>4.508256170956042</v>
+      </c>
+      <c r="F12">
+        <v>5.510193758782663</v>
+      </c>
+      <c r="G12">
+        <v>2.98</v>
+      </c>
+      <c r="H12">
+        <v>54.1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1.271</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1.271</v>
+      </c>
+      <c r="M12">
+        <v>0.08926513889227913</v>
+      </c>
+      <c r="N12">
+        <v>1.181734861107721</v>
+      </c>
+      <c r="O12">
+        <v>0.2363469722215442</v>
+      </c>
+      <c r="P12">
+        <v>0.9453878888861768</v>
+      </c>
+      <c r="Q12">
+        <v>0.9453878888861768</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.1070188442235955</v>
+      </c>
+      <c r="T12">
+        <v>1.559385181006557</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.2</v>
+      </c>
+      <c r="W12">
+        <v>0.01296</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>14.23848117834423</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.09761087620980483</v>
+      </c>
+      <c r="C13">
+        <v>49.97138845354245</v>
+      </c>
+      <c r="D13">
+        <v>53.05260158820338</v>
+      </c>
+      <c r="E13">
+        <v>5.059275546834307</v>
+      </c>
+      <c r="F13">
+        <v>6.061213134660928</v>
+      </c>
+      <c r="G13">
+        <v>2.98</v>
+      </c>
+      <c r="H13">
+        <v>54.1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1.271</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1.271</v>
+      </c>
+      <c r="M13">
+        <v>0.1078895937969645</v>
+      </c>
+      <c r="N13">
+        <v>1.163110406203036</v>
+      </c>
+      <c r="O13">
+        <v>0.2326220812406071</v>
+      </c>
+      <c r="P13">
+        <v>0.9304883249624284</v>
+      </c>
+      <c r="Q13">
+        <v>0.9304883249624284</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.1079151418087695</v>
+      </c>
+      <c r="T13">
+        <v>1.573688186564975</v>
+      </c>
+      <c r="U13">
+        <v>0.0178</v>
+      </c>
+      <c r="V13">
+        <v>0.2</v>
+      </c>
+      <c r="W13">
+        <v>0.01424</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>11.78056154694467</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.09748079261837374</v>
+      </c>
+      <c r="C14">
+        <v>49.49863184605665</v>
+      </c>
+      <c r="D14">
+        <v>53.13086435659585</v>
+      </c>
+      <c r="E14">
+        <v>5.610294922712573</v>
+      </c>
+      <c r="F14">
+        <v>6.612232510539194</v>
+      </c>
+      <c r="G14">
+        <v>2.98</v>
+      </c>
+      <c r="H14">
+        <v>54.1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1.271</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1.271</v>
+      </c>
+      <c r="M14">
+        <v>0.1176977386875976</v>
+      </c>
+      <c r="N14">
+        <v>1.153302261312402</v>
+      </c>
+      <c r="O14">
+        <v>0.2306604522624805</v>
+      </c>
+      <c r="P14">
+        <v>0.922641809049922</v>
+      </c>
+      <c r="Q14">
+        <v>0.922641809049922</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.1088318097936065</v>
+      </c>
+      <c r="T14">
+        <v>1.58831626043154</v>
+      </c>
+      <c r="U14">
+        <v>0.0178</v>
+      </c>
+      <c r="V14">
+        <v>0.2</v>
+      </c>
+      <c r="W14">
+        <v>0.01424</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>10.79884808469928</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.09757950902694265</v>
+      </c>
+      <c r="C15">
+        <v>48.88820017652999</v>
+      </c>
+      <c r="D15">
+        <v>53.07145206294746</v>
+      </c>
+      <c r="E15">
+        <v>6.16131429859084</v>
+      </c>
+      <c r="F15">
+        <v>7.163251886417461</v>
+      </c>
+      <c r="G15">
+        <v>2.98</v>
+      </c>
+      <c r="H15">
+        <v>54.1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1.271</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1.271</v>
+      </c>
+      <c r="M15">
+        <v>0.1432650377283492</v>
+      </c>
+      <c r="N15">
+        <v>1.127734962271651</v>
+      </c>
+      <c r="O15">
+        <v>0.2255469924543302</v>
+      </c>
+      <c r="P15">
+        <v>0.9021879698173209</v>
+      </c>
+      <c r="Q15">
+        <v>0.9021879698173209</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.1097695506056812</v>
+      </c>
+      <c r="T15">
+        <v>1.603280611858255</v>
+      </c>
+      <c r="U15">
+        <v>0.02</v>
+      </c>
+      <c r="V15">
+        <v>0.2</v>
+      </c>
+      <c r="W15">
+        <v>0.016</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>8.871669041891408</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.09746702543551156</v>
+      </c>
+      <c r="C16">
+        <v>48.40488941961687</v>
+      </c>
+      <c r="D16">
+        <v>53.1391606819126</v>
+      </c>
+      <c r="E16">
+        <v>6.712333674469107</v>
+      </c>
+      <c r="F16">
+        <v>7.714271262295727</v>
+      </c>
+      <c r="G16">
+        <v>2.98</v>
+      </c>
+      <c r="H16">
+        <v>54.1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1.271</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1.271</v>
+      </c>
+      <c r="M16">
+        <v>0.1542854252459145</v>
+      </c>
+      <c r="N16">
+        <v>1.116714574754086</v>
+      </c>
+      <c r="O16">
+        <v>0.2233429149508172</v>
+      </c>
+      <c r="P16">
+        <v>0.8933716598032685</v>
+      </c>
+      <c r="Q16">
+        <v>0.8933716598032685</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.1107290993436181</v>
+      </c>
+      <c r="T16">
+        <v>1.618592971457684</v>
+      </c>
+      <c r="U16">
+        <v>0.02</v>
+      </c>
+      <c r="V16">
+        <v>0.2</v>
+      </c>
+      <c r="W16">
+        <v>0.016</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>8.237978396042022</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.09748654184408045</v>
+      </c>
+      <c r="C17">
+        <v>47.84210990949147</v>
+      </c>
+      <c r="D17">
+        <v>53.12740054766547</v>
+      </c>
+      <c r="E17">
+        <v>7.263353050347371</v>
+      </c>
+      <c r="F17">
+        <v>8.265290638173992</v>
+      </c>
+      <c r="G17">
+        <v>2.98</v>
+      </c>
+      <c r="H17">
+        <v>54.1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1.271</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1.271</v>
+      </c>
+      <c r="M17">
+        <v>0.1743976324654712</v>
+      </c>
+      <c r="N17">
+        <v>1.096602367534529</v>
+      </c>
+      <c r="O17">
+        <v>0.2193204735069058</v>
+      </c>
+      <c r="P17">
+        <v>0.8772818940276231</v>
+      </c>
+      <c r="Q17">
+        <v>0.8772818940276231</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.1117112256989182</v>
+      </c>
+      <c r="T17">
+        <v>1.634265621871217</v>
+      </c>
+      <c r="U17">
+        <v>0.0211</v>
+      </c>
+      <c r="V17">
+        <v>0.2</v>
+      </c>
+      <c r="W17">
+        <v>0.01688</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>7.287942972801789</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.09738285825264936</v>
+      </c>
+      <c r="C18">
+        <v>47.35362755615601</v>
+      </c>
+      <c r="D18">
+        <v>53.18993757020827</v>
+      </c>
+      <c r="E18">
+        <v>7.814372426225638</v>
+      </c>
+      <c r="F18">
+        <v>8.816310014052259</v>
+      </c>
+      <c r="G18">
+        <v>2.98</v>
+      </c>
+      <c r="H18">
+        <v>54.1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1.271</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1.271</v>
+      </c>
+      <c r="M18">
+        <v>0.1860241412965027</v>
+      </c>
+      <c r="N18">
+        <v>1.084975858703497</v>
+      </c>
+      <c r="O18">
+        <v>0.2169951717406995</v>
+      </c>
+      <c r="P18">
+        <v>0.867980686962798</v>
+      </c>
+      <c r="Q18">
+        <v>0.867980686962798</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.1127167360150588</v>
+      </c>
+      <c r="T18">
+        <v>1.650311430627931</v>
+      </c>
+      <c r="U18">
+        <v>0.0211</v>
+      </c>
+      <c r="V18">
+        <v>0.2</v>
+      </c>
+      <c r="W18">
+        <v>0.01688</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>6.832446537001675</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.09727917466121827</v>
+      </c>
+      <c r="C19">
+        <v>46.8652926027733</v>
+      </c>
+      <c r="D19">
+        <v>53.25262199270383</v>
+      </c>
+      <c r="E19">
+        <v>8.365391802103904</v>
+      </c>
+      <c r="F19">
+        <v>9.367329389930525</v>
+      </c>
+      <c r="G19">
+        <v>2.98</v>
+      </c>
+      <c r="H19">
+        <v>54.1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1.271</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1.271</v>
+      </c>
+      <c r="M19">
+        <v>0.1976506501275341</v>
+      </c>
+      <c r="N19">
+        <v>1.073349349872466</v>
+      </c>
+      <c r="O19">
+        <v>0.2146698699744932</v>
+      </c>
+      <c r="P19">
+        <v>0.8586794798979728</v>
+      </c>
+      <c r="Q19">
+        <v>0.8586794798979728</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.1137464754954437</v>
+      </c>
+      <c r="T19">
+        <v>1.666743885378781</v>
+      </c>
+      <c r="U19">
+        <v>0.0211</v>
+      </c>
+      <c r="V19">
+        <v>0.2</v>
+      </c>
+      <c r="W19">
+        <v>0.01688</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>6.430537917178048</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.09739149106978719</v>
+      </c>
+      <c r="C20">
+        <v>46.24637628047645</v>
+      </c>
+      <c r="D20">
+        <v>53.18472504628524</v>
+      </c>
+      <c r="E20">
+        <v>8.91641117798217</v>
+      </c>
+      <c r="F20">
+        <v>9.918348765808791</v>
+      </c>
+      <c r="G20">
+        <v>2.98</v>
+      </c>
+      <c r="H20">
+        <v>54.1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1.271</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1.271</v>
+      </c>
+      <c r="M20">
+        <v>0.2241546821072787</v>
+      </c>
+      <c r="N20">
+        <v>1.046845317892722</v>
+      </c>
+      <c r="O20">
+        <v>0.2093690635785443</v>
+      </c>
+      <c r="P20">
+        <v>0.8374762543141772</v>
+      </c>
+      <c r="Q20">
+        <v>0.8374762543141772</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.1148013305729112</v>
+      </c>
+      <c r="T20">
+        <v>1.683577131708921</v>
+      </c>
+      <c r="U20">
+        <v>0.0226</v>
+      </c>
+      <c r="V20">
+        <v>0.2</v>
+      </c>
+      <c r="W20">
+        <v>0.01808</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>5.670191619694608</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.09729980747835609</v>
+      </c>
+      <c r="C21">
+        <v>45.75076800993178</v>
+      </c>
+      <c r="D21">
+        <v>53.24013615161883</v>
+      </c>
+      <c r="E21">
+        <v>9.467430553860437</v>
+      </c>
+      <c r="F21">
+        <v>10.46936814168706</v>
+      </c>
+      <c r="G21">
+        <v>2.98</v>
+      </c>
+      <c r="H21">
+        <v>54.1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1.271</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1.271</v>
+      </c>
+      <c r="M21">
+        <v>0.2366077200021275</v>
+      </c>
+      <c r="N21">
+        <v>1.034392279997873</v>
+      </c>
+      <c r="O21">
+        <v>0.2068784559995746</v>
+      </c>
+      <c r="P21">
+        <v>0.8275138239982981</v>
+      </c>
+      <c r="Q21">
+        <v>0.8275138239982981</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.1158822314547606</v>
+      </c>
+      <c r="T21">
+        <v>1.700826013750916</v>
+      </c>
+      <c r="U21">
+        <v>0.0226</v>
+      </c>
+      <c r="V21">
+        <v>0.2</v>
+      </c>
+      <c r="W21">
+        <v>0.01808</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>5.371760481815943</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.09720812388692499</v>
+      </c>
+      <c r="C22">
+        <v>45.25527532117675</v>
+      </c>
+      <c r="D22">
+        <v>53.29566283874208</v>
+      </c>
+      <c r="E22">
+        <v>10.0184499297387</v>
+      </c>
+      <c r="F22">
+        <v>11.02038751756533</v>
+      </c>
+      <c r="G22">
+        <v>2.98</v>
+      </c>
+      <c r="H22">
+        <v>54.1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1.271</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1.271</v>
+      </c>
+      <c r="M22">
+        <v>0.2490607578969763</v>
+      </c>
+      <c r="N22">
+        <v>1.021939242103024</v>
+      </c>
+      <c r="O22">
+        <v>0.2043878484206048</v>
+      </c>
+      <c r="P22">
+        <v>0.817551393682419</v>
+      </c>
+      <c r="Q22">
+        <v>0.817551393682419</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.1169901548586562</v>
+      </c>
+      <c r="T22">
+        <v>1.718506117843961</v>
+      </c>
+      <c r="U22">
+        <v>0.0226</v>
+      </c>
+      <c r="V22">
+        <v>0.2</v>
+      </c>
+      <c r="W22">
+        <v>0.01808</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>5.103172457725146</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.09711644029549389</v>
+      </c>
+      <c r="C23">
+        <v>44.75989857622631</v>
+      </c>
+      <c r="D23">
+        <v>53.3513054696699</v>
+      </c>
+      <c r="E23">
+        <v>10.56946930561697</v>
+      </c>
+      <c r="F23">
+        <v>11.57140689344359</v>
+      </c>
+      <c r="G23">
+        <v>2.98</v>
+      </c>
+      <c r="H23">
+        <v>54.1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1.271</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1.271</v>
+      </c>
+      <c r="M23">
+        <v>0.2615137957918251</v>
+      </c>
+      <c r="N23">
+        <v>1.009486204208175</v>
+      </c>
+      <c r="O23">
+        <v>0.201897240841635</v>
+      </c>
+      <c r="P23">
+        <v>0.8075889633665401</v>
+      </c>
+      <c r="Q23">
+        <v>0.8075889633665401</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.1181261269563214</v>
+      </c>
+      <c r="T23">
+        <v>1.736633819508981</v>
+      </c>
+      <c r="U23">
+        <v>0.0226</v>
+      </c>
+      <c r="V23">
+        <v>0.2</v>
+      </c>
+      <c r="W23">
+        <v>0.01808</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>4.860164245452521</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.09702475670406281</v>
+      </c>
+      <c r="C24">
+        <v>44.26463813860873</v>
+      </c>
+      <c r="D24">
+        <v>53.40706440793059</v>
+      </c>
+      <c r="E24">
+        <v>11.12048868149524</v>
+      </c>
+      <c r="F24">
+        <v>12.12242626932186</v>
+      </c>
+      <c r="G24">
+        <v>2.98</v>
+      </c>
+      <c r="H24">
+        <v>54.1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1.271</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1.271</v>
+      </c>
+      <c r="M24">
+        <v>0.273966833686674</v>
+      </c>
+      <c r="N24">
+        <v>0.9970331663133262</v>
+      </c>
+      <c r="O24">
+        <v>0.1994066332626653</v>
+      </c>
+      <c r="P24">
+        <v>0.7976265330506609</v>
+      </c>
+      <c r="Q24">
+        <v>0.7976265330506609</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.1192912265436703</v>
+      </c>
+      <c r="T24">
+        <v>1.755226334037208</v>
+      </c>
+      <c r="U24">
+        <v>0.0226</v>
+      </c>
+      <c r="V24">
+        <v>0.2</v>
+      </c>
+      <c r="W24">
+        <v>0.01808</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>4.639247688841041</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.1135613356520849</v>
+      </c>
+      <c r="C25">
+        <v>35.24288384033371</v>
+      </c>
+      <c r="D25">
+        <v>44.93632948553384</v>
+      </c>
+      <c r="E25">
+        <v>11.6715080573735</v>
+      </c>
+      <c r="F25">
+        <v>12.67344564520012</v>
+      </c>
+      <c r="G25">
+        <v>2.98</v>
+      </c>
+      <c r="H25">
+        <v>54.1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1.271</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1.271</v>
+      </c>
+      <c r="M25">
+        <v>1.381405575326814</v>
+      </c>
+      <c r="N25">
+        <v>-0.1104055753268134</v>
+      </c>
+      <c r="O25">
+        <v>-0.02208111506536268</v>
+      </c>
+      <c r="P25">
+        <v>-0.08832446026145072</v>
+      </c>
+      <c r="Q25">
+        <v>-0.08832446026145072</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.1209150695504785</v>
+      </c>
+      <c r="T25">
+        <v>1.78113941908459</v>
+      </c>
+      <c r="U25">
+        <v>0.109</v>
+      </c>
+      <c r="V25">
+        <v>0.1840154727476478</v>
+      </c>
+      <c r="W25">
+        <v>0.08894231347050638</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.9200773637382391</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.1145583356520849</v>
+      </c>
+      <c r="C26">
+        <v>34.26623052088672</v>
+      </c>
+      <c r="D26">
+        <v>44.51069554196511</v>
+      </c>
+      <c r="E26">
+        <v>12.22252743325177</v>
+      </c>
+      <c r="F26">
+        <v>13.22446502107839</v>
+      </c>
+      <c r="G26">
+        <v>2.98</v>
+      </c>
+      <c r="H26">
+        <v>54.1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1.271</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1.271</v>
+      </c>
+      <c r="M26">
+        <v>1.441466687297544</v>
+      </c>
+      <c r="N26">
+        <v>-0.170466687297544</v>
+      </c>
+      <c r="O26">
+        <v>-0.0340933374595088</v>
+      </c>
+      <c r="P26">
+        <v>-0.1363733498380352</v>
+      </c>
+      <c r="Q26">
+        <v>-0.1363733498380352</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.122383688886669</v>
+      </c>
+      <c r="T26">
+        <v>1.804575464072545</v>
+      </c>
+      <c r="U26">
+        <v>0.109</v>
+      </c>
+      <c r="V26">
+        <v>0.1763481613831626</v>
+      </c>
+      <c r="W26">
+        <v>0.08977805040923528</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.8817408069158128</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.1155553356520849</v>
+      </c>
+      <c r="C27">
+        <v>33.29756469758068</v>
+      </c>
+      <c r="D27">
+        <v>44.09304909453734</v>
+      </c>
+      <c r="E27">
+        <v>12.77354680913003</v>
+      </c>
+      <c r="F27">
+        <v>13.77548439695665</v>
+      </c>
+      <c r="G27">
+        <v>2.98</v>
+      </c>
+      <c r="H27">
+        <v>54.1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1.271</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1.271</v>
+      </c>
+      <c r="M27">
+        <v>1.501527799268275</v>
+      </c>
+      <c r="N27">
+        <v>-0.2305277992682753</v>
+      </c>
+      <c r="O27">
+        <v>-0.04610555985365505</v>
+      </c>
+      <c r="P27">
+        <v>-0.1844222394146202</v>
+      </c>
+      <c r="Q27">
+        <v>-0.1844222394146202</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.1238914714051579</v>
+      </c>
+      <c r="T27">
+        <v>1.828636470260179</v>
+      </c>
+      <c r="U27">
+        <v>0.109</v>
+      </c>
+      <c r="V27">
+        <v>0.169294234927836</v>
+      </c>
+      <c r="W27">
+        <v>0.09054692839286588</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.8464711746391801</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1165523356520849</v>
+      </c>
+      <c r="C28">
+        <v>32.3366636190805</v>
+      </c>
+      <c r="D28">
+        <v>43.68316739191542</v>
+      </c>
+      <c r="E28">
+        <v>13.3245661850083</v>
+      </c>
+      <c r="F28">
+        <v>14.32650377283492</v>
+      </c>
+      <c r="G28">
+        <v>2.98</v>
+      </c>
+      <c r="H28">
+        <v>54.1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1.271</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1.271</v>
+      </c>
+      <c r="M28">
+        <v>1.561588911239006</v>
+      </c>
+      <c r="N28">
+        <v>-0.2905889112390063</v>
+      </c>
+      <c r="O28">
+        <v>-0.05811778224780127</v>
+      </c>
+      <c r="P28">
+        <v>-0.2324711289912051</v>
+      </c>
+      <c r="Q28">
+        <v>-0.2324711289912051</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.1254400048025249</v>
+      </c>
+      <c r="T28">
+        <v>1.853347773912343</v>
+      </c>
+      <c r="U28">
+        <v>0.109</v>
+      </c>
+      <c r="V28">
+        <v>0.1627829181998423</v>
+      </c>
+      <c r="W28">
+        <v>0.09125666191621719</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.8139145909992116</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1268185824098907</v>
+      </c>
+      <c r="C29">
+        <v>27.96954838489997</v>
+      </c>
+      <c r="D29">
+        <v>39.86707153361316</v>
+      </c>
+      <c r="E29">
+        <v>13.87558556088657</v>
+      </c>
+      <c r="F29">
+        <v>14.87752314871319</v>
+      </c>
+      <c r="G29">
+        <v>2.98</v>
+      </c>
+      <c r="H29">
+        <v>54.1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1.271</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1.271</v>
+      </c>
+      <c r="M29">
+        <v>2.085828745449589</v>
+      </c>
+      <c r="N29">
+        <v>-0.8148287454495888</v>
+      </c>
+      <c r="O29">
+        <v>-0.1629657490899178</v>
+      </c>
+      <c r="P29">
+        <v>-0.651862996359671</v>
+      </c>
+      <c r="Q29">
+        <v>-0.651862996359671</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.1281888360433893</v>
+      </c>
+      <c r="T29">
+        <v>1.897213281493293</v>
+      </c>
+      <c r="U29">
+        <v>0.1402</v>
+      </c>
+      <c r="V29">
+        <v>0.1218700243510206</v>
+      </c>
+      <c r="W29">
+        <v>0.1231138225859869</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.6093501217551027</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1281275824098907</v>
+      </c>
+      <c r="C30">
+        <v>26.97935490836983</v>
+      </c>
+      <c r="D30">
+        <v>39.42789743296129</v>
+      </c>
+      <c r="E30">
+        <v>14.42660493676483</v>
+      </c>
+      <c r="F30">
+        <v>15.42854252459145</v>
+      </c>
+      <c r="G30">
+        <v>2.98</v>
+      </c>
+      <c r="H30">
+        <v>54.1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1.271</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1.271</v>
+      </c>
+      <c r="M30">
+        <v>2.163081661947722</v>
+      </c>
+      <c r="N30">
+        <v>-0.8920816619477219</v>
+      </c>
+      <c r="O30">
+        <v>-0.1784163323895444</v>
+      </c>
+      <c r="P30">
+        <v>-0.7136653295581775</v>
+      </c>
+      <c r="Q30">
+        <v>-0.7136653295581775</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.1298400698773253</v>
+      </c>
+      <c r="T30">
+        <v>1.923563465958478</v>
+      </c>
+      <c r="U30">
+        <v>0.1402</v>
+      </c>
+      <c r="V30">
+        <v>0.1175175234813412</v>
+      </c>
+      <c r="W30">
+        <v>0.123724043207916</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.5875876174067061</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1294365824098907</v>
+      </c>
+      <c r="C31">
+        <v>25.9987318538747</v>
+      </c>
+      <c r="D31">
+        <v>38.99829375434442</v>
+      </c>
+      <c r="E31">
+        <v>14.9776243126431</v>
+      </c>
+      <c r="F31">
+        <v>15.97956190046972</v>
+      </c>
+      <c r="G31">
+        <v>2.98</v>
+      </c>
+      <c r="H31">
+        <v>54.1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1.271</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1.271</v>
+      </c>
+      <c r="M31">
+        <v>2.240334578445855</v>
+      </c>
+      <c r="N31">
+        <v>-0.9693345784458545</v>
+      </c>
+      <c r="O31">
+        <v>-0.1938669156891709</v>
+      </c>
+      <c r="P31">
+        <v>-0.7754676627566836</v>
+      </c>
+      <c r="Q31">
+        <v>-0.7754676627566836</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.1315378173403862</v>
+      </c>
+      <c r="T31">
+        <v>1.950655909140992</v>
+      </c>
+      <c r="U31">
+        <v>0.1402</v>
+      </c>
+      <c r="V31">
+        <v>0.1134651950854329</v>
+      </c>
+      <c r="W31">
+        <v>0.1242921796490223</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.5673259754271647</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1307455824098907</v>
+      </c>
+      <c r="C32">
+        <v>25.02736975731894</v>
+      </c>
+      <c r="D32">
+        <v>38.57795103366693</v>
+      </c>
+      <c r="E32">
+        <v>15.52864368852136</v>
+      </c>
+      <c r="F32">
+        <v>16.53058127634798</v>
+      </c>
+      <c r="G32">
+        <v>2.98</v>
+      </c>
+      <c r="H32">
+        <v>54.1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1.271</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1.271</v>
+      </c>
+      <c r="M32">
+        <v>2.317587494943987</v>
+      </c>
+      <c r="N32">
+        <v>-1.046587494943987</v>
+      </c>
+      <c r="O32">
+        <v>-0.2093174989887974</v>
+      </c>
+      <c r="P32">
+        <v>-0.8372699959551897</v>
+      </c>
+      <c r="Q32">
+        <v>-0.8372699959551897</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.1332840718738203</v>
+      </c>
+      <c r="T32">
+        <v>1.97852242212872</v>
+      </c>
+      <c r="U32">
+        <v>0.1402</v>
+      </c>
+      <c r="V32">
+        <v>0.1096830219159185</v>
+      </c>
+      <c r="W32">
+        <v>0.1248224403273882</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.5484151095795926</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1320545824098907</v>
+      </c>
+      <c r="C33">
+        <v>24.06497235455405</v>
+      </c>
+      <c r="D33">
+        <v>38.16657300678031</v>
+      </c>
+      <c r="E33">
+        <v>16.07966306439963</v>
+      </c>
+      <c r="F33">
+        <v>17.08160065222625</v>
+      </c>
+      <c r="G33">
+        <v>2.98</v>
+      </c>
+      <c r="H33">
+        <v>54.1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1.271</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1.271</v>
+      </c>
+      <c r="M33">
+        <v>2.394840411442121</v>
+      </c>
+      <c r="N33">
+        <v>-1.123840411442121</v>
+      </c>
+      <c r="O33">
+        <v>-0.2247680822884241</v>
+      </c>
+      <c r="P33">
+        <v>-0.8990723291536964</v>
+      </c>
+      <c r="Q33">
+        <v>-0.8990723291536964</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.1350809424806873</v>
+      </c>
+      <c r="T33">
+        <v>2.007196660130586</v>
+      </c>
+      <c r="U33">
+        <v>0.1402</v>
+      </c>
+      <c r="V33">
+        <v>0.1061448599186308</v>
+      </c>
+      <c r="W33">
+        <v>0.1253184906394079</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.5307242995931539</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1333635824098907</v>
+      </c>
+      <c r="C34">
+        <v>23.11125588501287</v>
+      </c>
+      <c r="D34">
+        <v>37.76387591311739</v>
+      </c>
+      <c r="E34">
+        <v>16.6306824402779</v>
+      </c>
+      <c r="F34">
+        <v>17.63262002810452</v>
+      </c>
+      <c r="G34">
+        <v>2.98</v>
+      </c>
+      <c r="H34">
+        <v>54.1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1.271</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1.271</v>
+      </c>
+      <c r="M34">
+        <v>2.472093327940253</v>
+      </c>
+      <c r="N34">
+        <v>-1.201093327940253</v>
+      </c>
+      <c r="O34">
+        <v>-0.2402186655880506</v>
+      </c>
+      <c r="P34">
+        <v>-0.9608746623522025</v>
+      </c>
+      <c r="Q34">
+        <v>-0.9608746623522025</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.1369306622230503</v>
+      </c>
+      <c r="T34">
+        <v>2.036714258073683</v>
+      </c>
+      <c r="U34">
+        <v>0.1402</v>
+      </c>
+      <c r="V34">
+        <v>0.1028278330461736</v>
+      </c>
+      <c r="W34">
+        <v>0.1257835378069264</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.514139165230868</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1497268373095557</v>
+      </c>
+      <c r="C35">
+        <v>18.15979611323308</v>
+      </c>
+      <c r="D35">
+        <v>33.36343551721587</v>
+      </c>
+      <c r="E35">
+        <v>17.18170181615616</v>
+      </c>
+      <c r="F35">
+        <v>18.18363940398278</v>
+      </c>
+      <c r="G35">
+        <v>2.98</v>
+      </c>
+      <c r="H35">
+        <v>54.1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1.271</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1.271</v>
+      </c>
+      <c r="M35">
+        <v>3.340334558511638</v>
+      </c>
+      <c r="N35">
+        <v>-2.069334558511637</v>
+      </c>
+      <c r="O35">
+        <v>-0.4138669117023275</v>
+      </c>
+      <c r="P35">
+        <v>-1.65546764680931</v>
+      </c>
+      <c r="Q35">
+        <v>-1.65546764680931</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1398792615094615</v>
+      </c>
+      <c r="T35">
+        <v>2.083767639317481</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.07610016168957179</v>
+      </c>
+      <c r="W35">
+        <v>0.1697204002976257</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.3805008084478591</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1514708373095557</v>
+      </c>
+      <c r="C36">
+        <v>17.19950974109077</v>
+      </c>
+      <c r="D36">
+        <v>32.95416852095182</v>
+      </c>
+      <c r="E36">
+        <v>17.73272119203443</v>
+      </c>
+      <c r="F36">
+        <v>18.73465877986105</v>
+      </c>
+      <c r="G36">
+        <v>2.98</v>
+      </c>
+      <c r="H36">
+        <v>54.1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1.271</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>1.271</v>
+      </c>
+      <c r="M36">
+        <v>3.441556817860475</v>
+      </c>
+      <c r="N36">
+        <v>-2.170556817860475</v>
+      </c>
+      <c r="O36">
+        <v>-0.434111363572095</v>
+      </c>
+      <c r="P36">
+        <v>-1.73644545428838</v>
+      </c>
+      <c r="Q36">
+        <v>-1.73644545428838</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.1418577351686958</v>
+      </c>
+      <c r="T36">
+        <v>2.115339876276837</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.07386192163987852</v>
+      </c>
+      <c r="W36">
+        <v>0.1701315649947543</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.3693096081993925</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1532148373095557</v>
+      </c>
+      <c r="C37">
+        <v>16.24914259138347</v>
+      </c>
+      <c r="D37">
+        <v>32.55482074712279</v>
+      </c>
+      <c r="E37">
+        <v>18.2837405679127</v>
+      </c>
+      <c r="F37">
+        <v>19.28567815573932</v>
+      </c>
+      <c r="G37">
+        <v>2.98</v>
+      </c>
+      <c r="H37">
+        <v>54.1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1.271</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>1.271</v>
+      </c>
+      <c r="M37">
+        <v>3.542779077209313</v>
+      </c>
+      <c r="N37">
+        <v>-2.271779077209313</v>
+      </c>
+      <c r="O37">
+        <v>-0.4543558154418627</v>
+      </c>
+      <c r="P37">
+        <v>-1.817423261767451</v>
+      </c>
+      <c r="Q37">
+        <v>-1.817423261767451</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1438970849405219</v>
+      </c>
+      <c r="T37">
+        <v>2.147883566681096</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.07175158102159626</v>
+      </c>
+      <c r="W37">
+        <v>0.1705192345663328</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.3587579051079812</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1549588373095557</v>
+      </c>
+      <c r="C38">
+        <v>15.30833837009742</v>
+      </c>
+      <c r="D38">
+        <v>32.16503590171501</v>
+      </c>
+      <c r="E38">
+        <v>18.83475994379096</v>
+      </c>
+      <c r="F38">
+        <v>19.83669753161758</v>
+      </c>
+      <c r="G38">
+        <v>2.98</v>
+      </c>
+      <c r="H38">
+        <v>54.1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1.271</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1.271</v>
+      </c>
+      <c r="M38">
+        <v>3.64400133655815</v>
+      </c>
+      <c r="N38">
+        <v>-2.37300133655815</v>
+      </c>
+      <c r="O38">
+        <v>-0.47460026731163</v>
+      </c>
+      <c r="P38">
+        <v>-1.89840106924652</v>
+      </c>
+      <c r="Q38">
+        <v>-1.89840106924652</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1460001643927175</v>
+      </c>
+      <c r="T38">
+        <v>2.181444247410487</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.06975848154877416</v>
+      </c>
+      <c r="W38">
+        <v>0.1708853669394902</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.3487924077438707</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1567028373095557</v>
+      </c>
+      <c r="C39">
+        <v>14.3767576452216</v>
+      </c>
+      <c r="D39">
+        <v>31.78447455271745</v>
+      </c>
+      <c r="E39">
+        <v>19.38577931966923</v>
+      </c>
+      <c r="F39">
+        <v>20.38771690749585</v>
+      </c>
+      <c r="G39">
+        <v>2.98</v>
+      </c>
+      <c r="H39">
+        <v>54.1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1.271</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>1.271</v>
+      </c>
+      <c r="M39">
+        <v>3.745223595906988</v>
+      </c>
+      <c r="N39">
+        <v>-2.474223595906988</v>
+      </c>
+      <c r="O39">
+        <v>-0.4948447191813976</v>
+      </c>
+      <c r="P39">
+        <v>-1.97937887672559</v>
+      </c>
+      <c r="Q39">
+        <v>-1.97937887672559</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.148170008271967</v>
+      </c>
+      <c r="T39">
+        <v>2.216070346575733</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.06787311718259105</v>
+      </c>
+      <c r="W39">
+        <v>0.171231708373558</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.3393655859129552</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1584468373095557</v>
+      </c>
+      <c r="C40">
+        <v>13.45407686089598</v>
+      </c>
+      <c r="D40">
+        <v>31.4128131442701</v>
+      </c>
+      <c r="E40">
+        <v>19.93679869554749</v>
+      </c>
+      <c r="F40">
+        <v>20.93873628337412</v>
+      </c>
+      <c r="G40">
+        <v>2.98</v>
+      </c>
+      <c r="H40">
+        <v>54.1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1.271</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1.271</v>
+      </c>
+      <c r="M40">
+        <v>3.846445855255825</v>
+      </c>
+      <c r="N40">
+        <v>-2.575445855255825</v>
+      </c>
+      <c r="O40">
+        <v>-0.5150891710511649</v>
+      </c>
+      <c r="P40">
+        <v>-2.06035668420466</v>
+      </c>
+      <c r="Q40">
+        <v>-2.06035668420466</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1504098471150632</v>
+      </c>
+      <c r="T40">
+        <v>2.251813416681794</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.0660869825198913</v>
+      </c>
+      <c r="W40">
+        <v>0.171559821311096</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.3304349125994566</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1601908373095557</v>
+      </c>
+      <c r="C41">
+        <v>12.53998741992677</v>
+      </c>
+      <c r="D41">
+        <v>31.04974307917915</v>
+      </c>
+      <c r="E41">
+        <v>20.48781807142576</v>
+      </c>
+      <c r="F41">
+        <v>21.48975565925238</v>
+      </c>
+      <c r="G41">
+        <v>2.98</v>
+      </c>
+      <c r="H41">
+        <v>54.1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1.271</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1.271</v>
+      </c>
+      <c r="M41">
+        <v>3.947668114604662</v>
+      </c>
+      <c r="N41">
+        <v>-2.676668114604662</v>
+      </c>
+      <c r="O41">
+        <v>-0.5353336229209325</v>
+      </c>
+      <c r="P41">
+        <v>-2.14133449168373</v>
+      </c>
+      <c r="Q41">
+        <v>-2.14133449168373</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1527231232972774</v>
+      </c>
+      <c r="T41">
+        <v>2.288728390725757</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.06439244450656076</v>
+      </c>
+      <c r="W41">
+        <v>0.1718711079441448</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.3219622225328038</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1619348373095557</v>
+      </c>
+      <c r="C42">
+        <v>11.63419482920066</v>
+      </c>
+      <c r="D42">
+        <v>30.69496986433131</v>
+      </c>
+      <c r="E42">
+        <v>21.03883744730403</v>
+      </c>
+      <c r="F42">
+        <v>22.04077503513065</v>
+      </c>
+      <c r="G42">
+        <v>2.98</v>
+      </c>
+      <c r="H42">
+        <v>54.1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1.271</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1.271</v>
+      </c>
+      <c r="M42">
+        <v>4.0488903739535</v>
+      </c>
+      <c r="N42">
+        <v>-2.7778903739535</v>
+      </c>
+      <c r="O42">
+        <v>-0.5555780747907001</v>
+      </c>
+      <c r="P42">
+        <v>-2.2223122991628</v>
+      </c>
+      <c r="Q42">
+        <v>-2.2223122991628</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1551135086855653</v>
+      </c>
+      <c r="T42">
+        <v>2.32687386390452</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.06278263339389673</v>
+      </c>
+      <c r="W42">
+        <v>0.1721668302455412</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.3139131669694836</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1636788373095557</v>
+      </c>
+      <c r="C43">
+        <v>10.73641790302388</v>
+      </c>
+      <c r="D43">
+        <v>30.3482123140328</v>
+      </c>
+      <c r="E43">
+        <v>21.58985682318229</v>
+      </c>
+      <c r="F43">
+        <v>22.59179441100892</v>
+      </c>
+      <c r="G43">
+        <v>2.98</v>
+      </c>
+      <c r="H43">
+        <v>54.1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1.271</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>1.271</v>
+      </c>
+      <c r="M43">
+        <v>4.150112633302338</v>
+      </c>
+      <c r="N43">
+        <v>-2.879112633302338</v>
+      </c>
+      <c r="O43">
+        <v>-0.5758225266604676</v>
+      </c>
+      <c r="P43">
+        <v>-2.30329010664187</v>
+      </c>
+      <c r="Q43">
+        <v>-2.30329010664187</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1575849240870156</v>
+      </c>
+      <c r="T43">
+        <v>2.366312403970698</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.06125134965258218</v>
+      </c>
+      <c r="W43">
+        <v>0.1724481270688207</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.3062567482629108</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1654228373095557</v>
+      </c>
+      <c r="C44">
+        <v>9.846388019856857</v>
+      </c>
+      <c r="D44">
+        <v>30.00920180674404</v>
+      </c>
+      <c r="E44">
+        <v>22.14087619906056</v>
+      </c>
+      <c r="F44">
+        <v>23.14281378688718</v>
+      </c>
+      <c r="G44">
+        <v>2.98</v>
+      </c>
+      <c r="H44">
+        <v>54.1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1.271</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1.271</v>
+      </c>
+      <c r="M44">
+        <v>4.251334892651174</v>
+      </c>
+      <c r="N44">
+        <v>-2.980334892651174</v>
+      </c>
+      <c r="O44">
+        <v>-0.5960669785302349</v>
+      </c>
+      <c r="P44">
+        <v>-2.384267914120939</v>
+      </c>
+      <c r="Q44">
+        <v>-2.384267914120939</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1601415607092055</v>
+      </c>
+      <c r="T44">
+        <v>2.407110893694331</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.05979298418466357</v>
+      </c>
+      <c r="W44">
+        <v>0.1727160288052773</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.2989649209233177</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1671668373095557</v>
+      </c>
+      <c r="C45">
+        <v>8.963848428315199</v>
+      </c>
+      <c r="D45">
+        <v>29.67768159108065</v>
+      </c>
+      <c r="E45">
+        <v>22.69189557493883</v>
+      </c>
+      <c r="F45">
+        <v>23.69383316276545</v>
+      </c>
+      <c r="G45">
+        <v>2.98</v>
+      </c>
+      <c r="H45">
+        <v>54.1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1.271</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>1.271</v>
+      </c>
+      <c r="M45">
+        <v>4.352557152000013</v>
+      </c>
+      <c r="N45">
+        <v>-3.081557152000013</v>
+      </c>
+      <c r="O45">
+        <v>-0.6163114304000026</v>
+      </c>
+      <c r="P45">
+        <v>-2.46524572160001</v>
+      </c>
+      <c r="Q45">
+        <v>-2.46524572160001</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1627879038795425</v>
+      </c>
+      <c r="T45">
+        <v>2.449340909373179</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.05840244966874114</v>
+      </c>
+      <c r="W45">
+        <v>0.1729714699958523</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.2920122483437056</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1689108373095557</v>
+      </c>
+      <c r="C46">
+        <v>8.088553598668938</v>
+      </c>
+      <c r="D46">
+        <v>29.35340613731265</v>
+      </c>
+      <c r="E46">
+        <v>23.24291495081709</v>
+      </c>
+      <c r="F46">
+        <v>24.24485253864371</v>
+      </c>
+      <c r="G46">
+        <v>2.98</v>
+      </c>
+      <c r="H46">
+        <v>54.1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1.271</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>1.271</v>
+      </c>
+      <c r="M46">
+        <v>4.45377941134885</v>
+      </c>
+      <c r="N46">
+        <v>-3.18277941134885</v>
+      </c>
+      <c r="O46">
+        <v>-0.6365558822697701</v>
+      </c>
+      <c r="P46">
+        <v>-2.54622352907908</v>
+      </c>
+      <c r="Q46">
+        <v>-2.54622352907908</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1655287593059629</v>
+      </c>
+      <c r="T46">
+        <v>2.4930791398977</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.05707512126717884</v>
+      </c>
+      <c r="W46">
+        <v>0.1732153002232192</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.2853756063358942</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1706548373095557</v>
+      </c>
+      <c r="C47">
+        <v>7.220268616397586</v>
+      </c>
+      <c r="D47">
+        <v>29.03614053091957</v>
+      </c>
+      <c r="E47">
+        <v>23.79393432669536</v>
+      </c>
+      <c r="F47">
+        <v>24.79587191452198</v>
+      </c>
+      <c r="G47">
+        <v>2.98</v>
+      </c>
+      <c r="H47">
+        <v>54.1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1.271</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>1.271</v>
+      </c>
+      <c r="M47">
+        <v>4.555001670697687</v>
+      </c>
+      <c r="N47">
+        <v>-3.284001670697688</v>
+      </c>
+      <c r="O47">
+        <v>-0.6568003341395375</v>
+      </c>
+      <c r="P47">
+        <v>-2.62720133655815</v>
+      </c>
+      <c r="Q47">
+        <v>-2.62720133655815</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1683692822024349</v>
+      </c>
+      <c r="T47">
+        <v>2.538407851532204</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.05580678523901932</v>
+      </c>
+      <c r="W47">
+        <v>0.1734482935515922</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.2790339261950965</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1723988373095557</v>
+      </c>
+      <c r="C48">
+        <v>6.358768614653105</v>
+      </c>
+      <c r="D48">
+        <v>28.72565990505335</v>
+      </c>
+      <c r="E48">
+        <v>24.34495370257363</v>
+      </c>
+      <c r="F48">
+        <v>25.34689129040025</v>
+      </c>
+      <c r="G48">
+        <v>2.98</v>
+      </c>
+      <c r="H48">
+        <v>54.1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1.271</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1.271</v>
+      </c>
+      <c r="M48">
+        <v>4.656223930046526</v>
+      </c>
+      <c r="N48">
+        <v>-3.385223930046526</v>
+      </c>
+      <c r="O48">
+        <v>-0.6770447860093052</v>
+      </c>
+      <c r="P48">
+        <v>-2.708179144037221</v>
+      </c>
+      <c r="Q48">
+        <v>-2.708179144037221</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1713150096506282</v>
+      </c>
+      <c r="T48">
+        <v>2.585415404338355</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.05459359425556237</v>
+      </c>
+      <c r="W48">
+        <v>0.1736711567352532</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.2729679712778118</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1741428373095557</v>
+      </c>
+      <c r="C49">
+        <v>5.503838242749364</v>
+      </c>
+      <c r="D49">
+        <v>28.42174890902788</v>
+      </c>
+      <c r="E49">
+        <v>24.89597307845189</v>
+      </c>
+      <c r="F49">
+        <v>25.89791066627851</v>
+      </c>
+      <c r="G49">
+        <v>2.98</v>
+      </c>
+      <c r="H49">
+        <v>54.1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1.271</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>1.271</v>
+      </c>
+      <c r="M49">
+        <v>4.757446189395363</v>
+      </c>
+      <c r="N49">
+        <v>-3.486446189395363</v>
+      </c>
+      <c r="O49">
+        <v>-0.6972892378790727</v>
+      </c>
+      <c r="P49">
+        <v>-2.789156951516291</v>
+      </c>
+      <c r="Q49">
+        <v>-2.789156951516291</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1743718966251683</v>
+      </c>
+      <c r="T49">
+        <v>2.634196827061721</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.05343202842033763</v>
+      </c>
+      <c r="W49">
+        <v>0.173884536379184</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.2671601421016881</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1758868373095557</v>
+      </c>
+      <c r="C50">
+        <v>4.655271168037988</v>
+      </c>
+      <c r="D50">
+        <v>28.12420121019476</v>
+      </c>
+      <c r="E50">
+        <v>25.44699245433015</v>
+      </c>
+      <c r="F50">
+        <v>26.44893004215677</v>
+      </c>
+      <c r="G50">
+        <v>2.98</v>
+      </c>
+      <c r="H50">
+        <v>54.1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1.271</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>1.271</v>
+      </c>
+      <c r="M50">
+        <v>4.8586684487442</v>
+      </c>
+      <c r="N50">
+        <v>-3.5876684487442</v>
+      </c>
+      <c r="O50">
+        <v>-0.71753368974884</v>
+      </c>
+      <c r="P50">
+        <v>-2.87013475899536</v>
+      </c>
+      <c r="Q50">
+        <v>-2.87013475899536</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1775463561756523</v>
+      </c>
+      <c r="T50">
+        <v>2.684854458351369</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.05231886116158061</v>
+      </c>
+      <c r="W50">
+        <v>0.1740890252046176</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.261594305807903</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1776308373095557</v>
+      </c>
+      <c r="C51">
+        <v>3.812869608749196</v>
+      </c>
+      <c r="D51">
+        <v>27.83281902678424</v>
+      </c>
+      <c r="E51">
+        <v>25.99801183020842</v>
+      </c>
+      <c r="F51">
+        <v>26.99994941803504</v>
+      </c>
+      <c r="G51">
+        <v>2.98</v>
+      </c>
+      <c r="H51">
+        <v>54.1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1.271</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>1.271</v>
+      </c>
+      <c r="M51">
+        <v>4.959890708093037</v>
+      </c>
+      <c r="N51">
+        <v>-3.688890708093037</v>
+      </c>
+      <c r="O51">
+        <v>-0.7377781416186076</v>
+      </c>
+      <c r="P51">
+        <v>-2.95111256647443</v>
+      </c>
+      <c r="Q51">
+        <v>-2.95111256647443</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1808453043359592</v>
+      </c>
+      <c r="T51">
+        <v>2.737498663417082</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.05125112930114019</v>
+      </c>
+      <c r="W51">
+        <v>0.1742851675473805</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.2562556465057009</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1793748373095557</v>
+      </c>
+      <c r="C52">
+        <v>2.976443895575056</v>
+      </c>
+      <c r="D52">
+        <v>27.54741268948836</v>
+      </c>
+      <c r="E52">
+        <v>26.54903120608669</v>
+      </c>
+      <c r="F52">
+        <v>27.55096879391331</v>
+      </c>
+      <c r="G52">
+        <v>2.98</v>
+      </c>
+      <c r="H52">
+        <v>54.1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1.271</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>1.271</v>
+      </c>
+      <c r="M52">
+        <v>5.061112967441875</v>
+      </c>
+      <c r="N52">
+        <v>-3.790112967441875</v>
+      </c>
+      <c r="O52">
+        <v>-0.758022593488375</v>
+      </c>
+      <c r="P52">
+        <v>-3.0320903739535</v>
+      </c>
+      <c r="Q52">
+        <v>-3.0320903739535</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1842762104226784</v>
+      </c>
+      <c r="T52">
+        <v>2.792248636685424</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.0502261067151174</v>
+      </c>
+      <c r="W52">
+        <v>0.1744734641964329</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.2511305335755869</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1811188373095557</v>
+      </c>
+      <c r="C53">
+        <v>2.145812059952856</v>
+      </c>
+      <c r="D53">
+        <v>27.26780022974443</v>
+      </c>
+      <c r="E53">
+        <v>27.10005058196495</v>
+      </c>
+      <c r="F53">
+        <v>28.10198816979157</v>
+      </c>
+      <c r="G53">
+        <v>2.98</v>
+      </c>
+      <c r="H53">
+        <v>54.1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1.271</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>1.271</v>
+      </c>
+      <c r="M53">
+        <v>5.162335226790712</v>
+      </c>
+      <c r="N53">
+        <v>-3.891335226790712</v>
+      </c>
+      <c r="O53">
+        <v>-0.7782670453581425</v>
+      </c>
+      <c r="P53">
+        <v>-3.11306818143257</v>
+      </c>
+      <c r="Q53">
+        <v>-3.11306818143257</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.187847153492529</v>
+      </c>
+      <c r="T53">
+        <v>2.849233302740229</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.04924128109325235</v>
+      </c>
+      <c r="W53">
+        <v>0.1746543766631695</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.2462064054662617</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1828628373095557</v>
+      </c>
+      <c r="C54">
+        <v>1.320799447170668</v>
+      </c>
+      <c r="D54">
+        <v>26.99380699284051</v>
+      </c>
+      <c r="E54">
+        <v>27.65106995784322</v>
+      </c>
+      <c r="F54">
+        <v>28.65300754566984</v>
+      </c>
+      <c r="G54">
+        <v>2.98</v>
+      </c>
+      <c r="H54">
+        <v>54.1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1.271</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>1.271</v>
+      </c>
+      <c r="M54">
+        <v>5.26355748613955</v>
+      </c>
+      <c r="N54">
+        <v>-3.992557486139551</v>
+      </c>
+      <c r="O54">
+        <v>-0.7985114972279101</v>
+      </c>
+      <c r="P54">
+        <v>-3.194045988911641</v>
+      </c>
+      <c r="Q54">
+        <v>-3.194045988911641</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1915668858569567</v>
+      </c>
+      <c r="T54">
+        <v>2.90859232988065</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.04829433337992056</v>
+      </c>
+      <c r="W54">
+        <v>0.1748283309581086</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.2414716668996028</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1846068373095557</v>
+      </c>
+      <c r="C55">
+        <v>0.5012383525664816</v>
+      </c>
+      <c r="D55">
+        <v>26.72526527411459</v>
+      </c>
+      <c r="E55">
+        <v>28.20208933372149</v>
+      </c>
+      <c r="F55">
+        <v>29.20402692154811</v>
+      </c>
+      <c r="G55">
+        <v>2.98</v>
+      </c>
+      <c r="H55">
+        <v>54.1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1.271</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>1.271</v>
+      </c>
+      <c r="M55">
+        <v>5.364779745488388</v>
+      </c>
+      <c r="N55">
+        <v>-4.093779745488388</v>
+      </c>
+      <c r="O55">
+        <v>-0.8187559490976777</v>
+      </c>
+      <c r="P55">
+        <v>-3.27502379639071</v>
+      </c>
+      <c r="Q55">
+        <v>-3.27502379639071</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1954449047049771</v>
+      </c>
+      <c r="T55">
+        <v>2.970477273069601</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.04738311954256357</v>
+      </c>
+      <c r="W55">
+        <v>0.1749957209400311</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.2369155977128178</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1863508373095557</v>
+      </c>
+      <c r="C56">
+        <v>-0.3130323207714341</v>
+      </c>
+      <c r="D56">
+        <v>26.46201397665494</v>
+      </c>
+      <c r="E56">
+        <v>28.75310870959975</v>
+      </c>
+      <c r="F56">
+        <v>29.75504629742638</v>
+      </c>
+      <c r="G56">
+        <v>2.98</v>
+      </c>
+      <c r="H56">
+        <v>54.1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1.271</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>1.271</v>
+      </c>
+      <c r="M56">
+        <v>5.466002004837225</v>
+      </c>
+      <c r="N56">
+        <v>-4.195002004837225</v>
+      </c>
+      <c r="O56">
+        <v>-0.8390004009674451</v>
+      </c>
+      <c r="P56">
+        <v>-3.35600160386978</v>
+      </c>
+      <c r="Q56">
+        <v>-3.35600160386978</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1994915330681287</v>
+      </c>
+      <c r="T56">
+        <v>3.035052865962418</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.04650565436584943</v>
+      </c>
+      <c r="W56">
+        <v>0.1751569112929935</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.2325282718292471</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1880948373095557</v>
+      </c>
+      <c r="C57">
+        <v>-1.122167384270952</v>
+      </c>
+      <c r="D57">
+        <v>26.20389828903369</v>
+      </c>
+      <c r="E57">
+        <v>29.30412808547802</v>
+      </c>
+      <c r="F57">
+        <v>30.30606567330464</v>
+      </c>
+      <c r="G57">
+        <v>2.98</v>
+      </c>
+      <c r="H57">
+        <v>54.1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1.271</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1.271</v>
+      </c>
+      <c r="M57">
+        <v>5.567224264186064</v>
+      </c>
+      <c r="N57">
+        <v>-4.296224264186064</v>
+      </c>
+      <c r="O57">
+        <v>-0.8592448528372127</v>
+      </c>
+      <c r="P57">
+        <v>-3.436979411348851</v>
+      </c>
+      <c r="Q57">
+        <v>-3.436979411348851</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.2037180115807538</v>
+      </c>
+      <c r="T57">
+        <v>3.102498485206027</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.04566009701374307</v>
+      </c>
+      <c r="W57">
+        <v>0.1753122401785754</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.2283004850687153</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1898388373095557</v>
+      </c>
+      <c r="C58">
+        <v>-1.926315667464142</v>
+      </c>
+      <c r="D58">
+        <v>25.95076938171877</v>
+      </c>
+      <c r="E58">
+        <v>29.85514746135629</v>
+      </c>
+      <c r="F58">
+        <v>30.85708504918291</v>
+      </c>
+      <c r="G58">
+        <v>2.98</v>
+      </c>
+      <c r="H58">
+        <v>54.1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1.271</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>1.271</v>
+      </c>
+      <c r="M58">
+        <v>5.6684465235349</v>
+      </c>
+      <c r="N58">
+        <v>-4.3974465235349</v>
+      </c>
+      <c r="O58">
+        <v>-0.8794893047069801</v>
+      </c>
+      <c r="P58">
+        <v>-3.51795721882792</v>
+      </c>
+      <c r="Q58">
+        <v>-3.51795721882792</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.2081366027530437</v>
+      </c>
+      <c r="T58">
+        <v>3.173009814415255</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.04484473813849767</v>
+      </c>
+      <c r="W58">
+        <v>0.175462021603958</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.2242236906924883</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1915828373095557</v>
+      </c>
+      <c r="C59">
+        <v>-2.725620304147618</v>
+      </c>
+      <c r="D59">
+        <v>25.70248412091356</v>
+      </c>
+      <c r="E59">
+        <v>30.40616683723455</v>
+      </c>
+      <c r="F59">
+        <v>31.40810442506118</v>
+      </c>
+      <c r="G59">
+        <v>2.98</v>
+      </c>
+      <c r="H59">
+        <v>54.1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1.271</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>1.271</v>
+      </c>
+      <c r="M59">
+        <v>5.769668782883738</v>
+      </c>
+      <c r="N59">
+        <v>-4.498668782883738</v>
+      </c>
+      <c r="O59">
+        <v>-0.8997337565767476</v>
+      </c>
+      <c r="P59">
+        <v>-3.59893502630699</v>
+      </c>
+      <c r="Q59">
+        <v>-3.59893502630699</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.2127607097938121</v>
+      </c>
+      <c r="T59">
+        <v>3.246800740331889</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.0440579883465942</v>
+      </c>
+      <c r="W59">
+        <v>0.1756065475407306</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.2202899417329709</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1933268373095557</v>
+      </c>
+      <c r="C60">
+        <v>-3.520219002271538</v>
+      </c>
+      <c r="D60">
+        <v>25.4589047986679</v>
+      </c>
+      <c r="E60">
+        <v>30.95718621311282</v>
+      </c>
+      <c r="F60">
+        <v>31.95912380093944</v>
+      </c>
+      <c r="G60">
+        <v>2.98</v>
+      </c>
+      <c r="H60">
+        <v>54.1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1.271</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1.271</v>
+      </c>
+      <c r="M60">
+        <v>5.870891042232575</v>
+      </c>
+      <c r="N60">
+        <v>-4.599891042232575</v>
+      </c>
+      <c r="O60">
+        <v>-0.9199782084465151</v>
+      </c>
+      <c r="P60">
+        <v>-3.67991283378606</v>
+      </c>
+      <c r="Q60">
+        <v>-3.67991283378606</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.2176050124079505</v>
+      </c>
+      <c r="T60">
+        <v>3.3241055198636</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.04329836785785982</v>
+      </c>
+      <c r="W60">
+        <v>0.1757460898245111</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.216491839289299</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1950708373095557</v>
+      </c>
+      <c r="C61">
+        <v>-4.31024429862639</v>
+      </c>
+      <c r="D61">
+        <v>25.21989887819132</v>
+      </c>
+      <c r="E61">
+        <v>31.50820558899109</v>
+      </c>
+      <c r="F61">
+        <v>32.51014317681771</v>
+      </c>
+      <c r="G61">
+        <v>2.98</v>
+      </c>
+      <c r="H61">
+        <v>54.1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1.271</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>1.271</v>
+      </c>
+      <c r="M61">
+        <v>5.972113301581413</v>
+      </c>
+      <c r="N61">
+        <v>-4.701113301581413</v>
+      </c>
+      <c r="O61">
+        <v>-0.9402226603162825</v>
+      </c>
+      <c r="P61">
+        <v>-3.76089064126513</v>
+      </c>
+      <c r="Q61">
+        <v>-3.76089064126513</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.222685622466681</v>
+      </c>
+      <c r="T61">
+        <v>3.405181264250517</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.04256449721620117</v>
+      </c>
+      <c r="W61">
+        <v>0.1758809018613839</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.2128224860810058</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1968148373095557</v>
+      </c>
+      <c r="C62">
+        <v>-5.095823799317376</v>
+      </c>
+      <c r="D62">
+        <v>24.98533875337859</v>
+      </c>
+      <c r="E62">
+        <v>32.05922496486935</v>
+      </c>
+      <c r="F62">
+        <v>33.06116255269597</v>
+      </c>
+      <c r="G62">
+        <v>2.98</v>
+      </c>
+      <c r="H62">
+        <v>54.1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1.271</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>1.271</v>
+      </c>
+      <c r="M62">
+        <v>6.073335560930249</v>
+      </c>
+      <c r="N62">
+        <v>-4.802335560930249</v>
+      </c>
+      <c r="O62">
+        <v>-0.9604671121860499</v>
+      </c>
+      <c r="P62">
+        <v>-3.841868448744199</v>
+      </c>
+      <c r="Q62">
+        <v>-3.841868448744199</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.228020263028348</v>
+      </c>
+      <c r="T62">
+        <v>3.49031079585678</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.0418550889292645</v>
+      </c>
+      <c r="W62">
+        <v>0.1760112201636941</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.2092754446463224</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1985588373095557</v>
+      </c>
+      <c r="C63">
+        <v>-5.877080406943094</v>
+      </c>
+      <c r="D63">
+        <v>24.75510152163114</v>
+      </c>
+      <c r="E63">
+        <v>32.61024434074762</v>
+      </c>
+      <c r="F63">
+        <v>33.61218192857424</v>
+      </c>
+      <c r="G63">
+        <v>2.98</v>
+      </c>
+      <c r="H63">
+        <v>54.1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1.271</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>1.271</v>
+      </c>
+      <c r="M63">
+        <v>6.174557820279087</v>
+      </c>
+      <c r="N63">
+        <v>-4.903557820279087</v>
+      </c>
+      <c r="O63">
+        <v>-0.9807115640558175</v>
+      </c>
+      <c r="P63">
+        <v>-3.92284625622327</v>
+      </c>
+      <c r="Q63">
+        <v>-3.92284625622327</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.2336284749008698</v>
+      </c>
+      <c r="T63">
+        <v>3.579805944468493</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.04116893993042409</v>
+      </c>
+      <c r="W63">
+        <v>0.1761372657347811</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.2058446996521204</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.2003028373095557</v>
+      </c>
+      <c r="C64">
+        <v>-6.654132535328351</v>
+      </c>
+      <c r="D64">
+        <v>24.52906876912416</v>
+      </c>
+      <c r="E64">
+        <v>33.16126371662589</v>
+      </c>
+      <c r="F64">
+        <v>34.16320130445251</v>
+      </c>
+      <c r="G64">
+        <v>2.98</v>
+      </c>
+      <c r="H64">
+        <v>54.1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1.271</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>1.271</v>
+      </c>
+      <c r="M64">
+        <v>6.275780079627926</v>
+      </c>
+      <c r="N64">
+        <v>-5.004780079627926</v>
+      </c>
+      <c r="O64">
+        <v>-1.000956015925585</v>
+      </c>
+      <c r="P64">
+        <v>-4.003824063702341</v>
+      </c>
+      <c r="Q64">
+        <v>-4.003824063702341</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.2395318558193137</v>
+      </c>
+      <c r="T64">
+        <v>3.674011364059768</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.04050492477025595</v>
+      </c>
+      <c r="W64">
+        <v>0.176259245319704</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.2025246238512797</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.2020468373095557</v>
+      </c>
+      <c r="C65">
+        <v>-7.427094312599426</v>
+      </c>
+      <c r="D65">
+        <v>24.30712636773134</v>
+      </c>
+      <c r="E65">
+        <v>33.71228309250415</v>
+      </c>
+      <c r="F65">
+        <v>34.71422068033077</v>
+      </c>
+      <c r="G65">
+        <v>2.98</v>
+      </c>
+      <c r="H65">
+        <v>54.1</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1.271</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1.271</v>
+      </c>
+      <c r="M65">
+        <v>6.377002338976762</v>
+      </c>
+      <c r="N65">
+        <v>-5.106002338976762</v>
+      </c>
+      <c r="O65">
+        <v>-1.021200467795353</v>
+      </c>
+      <c r="P65">
+        <v>-4.08480187118141</v>
+      </c>
+      <c r="Q65">
+        <v>-4.08480187118141</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.2457543384090249</v>
+      </c>
+      <c r="T65">
+        <v>3.773308968493816</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.03986198945644237</v>
+      </c>
+      <c r="W65">
+        <v>0.1763773525368516</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.1993099472822119</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.2037908373095557</v>
+      </c>
+      <c r="C66">
+        <v>-8.196075773333405</v>
+      </c>
+      <c r="D66">
+        <v>24.08916428287563</v>
+      </c>
+      <c r="E66">
+        <v>34.26330246838242</v>
+      </c>
+      <c r="F66">
+        <v>35.26524005620904</v>
+      </c>
+      <c r="G66">
+        <v>2.98</v>
+      </c>
+      <c r="H66">
+        <v>54.1</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1.271</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>1.271</v>
+      </c>
+      <c r="M66">
+        <v>6.478224598325601</v>
+      </c>
+      <c r="N66">
+        <v>-5.207224598325601</v>
+      </c>
+      <c r="O66">
+        <v>-1.04144491966512</v>
+      </c>
+      <c r="P66">
+        <v>-4.16577967866048</v>
+      </c>
+      <c r="Q66">
+        <v>-4.16577967866048</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.2523225144759422</v>
+      </c>
+      <c r="T66">
+        <v>3.878123106507533</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.03923914587118546</v>
+      </c>
+      <c r="W66">
+        <v>0.1764917689034632</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.1961957293559272</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.2055348373095557</v>
+      </c>
+      <c r="C67">
+        <v>-8.9611830404614</v>
+      </c>
+      <c r="D67">
+        <v>23.87507639162591</v>
+      </c>
+      <c r="E67">
+        <v>34.81432184426069</v>
+      </c>
+      <c r="F67">
+        <v>35.81625943208731</v>
+      </c>
+      <c r="G67">
+        <v>2.98</v>
+      </c>
+      <c r="H67">
+        <v>54.1</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1.271</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1.271</v>
+      </c>
+      <c r="M67">
+        <v>6.579446857674438</v>
+      </c>
+      <c r="N67">
+        <v>-5.308446857674438</v>
+      </c>
+      <c r="O67">
+        <v>-1.061689371534888</v>
+      </c>
+      <c r="P67">
+        <v>-4.246757486139551</v>
+      </c>
+      <c r="Q67">
+        <v>-4.246757486139551</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.2592660148895406</v>
+      </c>
+      <c r="T67">
+        <v>3.98892662383632</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.03863546670393644</v>
+      </c>
+      <c r="W67">
+        <v>0.1766026647664869</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.1931773335196822</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.2072788373095557</v>
+      </c>
+      <c r="C68">
+        <v>-9.722518497557427</v>
+      </c>
+      <c r="D68">
+        <v>23.66476031040814</v>
+      </c>
+      <c r="E68">
+        <v>35.36534122013895</v>
+      </c>
+      <c r="F68">
+        <v>36.36727880796557</v>
+      </c>
+      <c r="G68">
+        <v>2.98</v>
+      </c>
+      <c r="H68">
+        <v>54.1</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1.271</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>1.271</v>
+      </c>
+      <c r="M68">
+        <v>6.680669117023275</v>
+      </c>
+      <c r="N68">
+        <v>-5.409669117023276</v>
+      </c>
+      <c r="O68">
+        <v>-1.081933823404655</v>
+      </c>
+      <c r="P68">
+        <v>-4.327735293618621</v>
+      </c>
+      <c r="Q68">
+        <v>-4.327735293618621</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.2666179565039388</v>
+      </c>
+      <c r="T68">
+        <v>4.106247995125623</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.03805008084478589</v>
+      </c>
+      <c r="W68">
+        <v>0.1767102001488128</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.1902504042239295</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.2090228373095556</v>
+      </c>
+      <c r="C69">
+        <v>-10.48018095210068</v>
+      </c>
+      <c r="D69">
+        <v>23.45811723174316</v>
+      </c>
+      <c r="E69">
+        <v>35.91636059601722</v>
+      </c>
+      <c r="F69">
+        <v>36.91829818384384</v>
+      </c>
+      <c r="G69">
+        <v>2.98</v>
+      </c>
+      <c r="H69">
+        <v>54.1</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1.271</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>1.271</v>
+      </c>
+      <c r="M69">
+        <v>6.781891376372113</v>
+      </c>
+      <c r="N69">
+        <v>-5.510891376372113</v>
+      </c>
+      <c r="O69">
+        <v>-1.102178275274423</v>
+      </c>
+      <c r="P69">
+        <v>-4.408713101097691</v>
+      </c>
+      <c r="Q69">
+        <v>-4.408713101097691</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.2744154703373915</v>
+      </c>
+      <c r="T69">
+        <v>4.230679752553673</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.03748216919038611</v>
+      </c>
+      <c r="W69">
+        <v>0.1768145255197261</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.1874108459519305</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.2107668373095556</v>
+      </c>
+      <c r="C70">
+        <v>-11.23426579025797</v>
+      </c>
+      <c r="D70">
+        <v>23.25505176946413</v>
+      </c>
+      <c r="E70">
+        <v>36.46737997189548</v>
+      </c>
+      <c r="F70">
+        <v>37.4693175597221</v>
+      </c>
+      <c r="G70">
+        <v>2.98</v>
+      </c>
+      <c r="H70">
+        <v>54.1</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1.271</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>1.271</v>
+      </c>
+      <c r="M70">
+        <v>6.883113635720949</v>
+      </c>
+      <c r="N70">
+        <v>-5.61211363572095</v>
+      </c>
+      <c r="O70">
+        <v>-1.12242272714419</v>
+      </c>
+      <c r="P70">
+        <v>-4.48969090857676</v>
+      </c>
+      <c r="Q70">
+        <v>-4.48969090857676</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.282700328785435</v>
+      </c>
+      <c r="T70">
+        <v>4.362888494820975</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.03693096081993926</v>
+      </c>
+      <c r="W70">
+        <v>0.1769157824973772</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.1846548040996963</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.2125108373095557</v>
+      </c>
+      <c r="C71">
+        <v>-11.98486512369611</v>
+      </c>
+      <c r="D71">
+        <v>23.05547181190426</v>
+      </c>
+      <c r="E71">
+        <v>37.01839934777375</v>
+      </c>
+      <c r="F71">
+        <v>38.02033693560037</v>
+      </c>
+      <c r="G71">
+        <v>2.98</v>
+      </c>
+      <c r="H71">
+        <v>54.1</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1.271</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>1.271</v>
+      </c>
+      <c r="M71">
+        <v>6.984335895069788</v>
+      </c>
+      <c r="N71">
+        <v>-5.713335895069788</v>
+      </c>
+      <c r="O71">
+        <v>-1.142667179013958</v>
+      </c>
+      <c r="P71">
+        <v>-4.57066871605583</v>
+      </c>
+      <c r="Q71">
+        <v>-4.57066871605583</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.2915196942301265</v>
+      </c>
+      <c r="T71">
+        <v>4.503626833363588</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.03639572950370825</v>
+      </c>
+      <c r="W71">
+        <v>0.1770141044901688</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.1819786475185412</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.2142548373095557</v>
+      </c>
+      <c r="C72">
+        <v>-12.73206792889852</v>
+      </c>
+      <c r="D72">
+        <v>22.85928838258011</v>
+      </c>
+      <c r="E72">
+        <v>37.56941872365202</v>
+      </c>
+      <c r="F72">
+        <v>38.57135631147864</v>
+      </c>
+      <c r="G72">
+        <v>2.98</v>
+      </c>
+      <c r="H72">
+        <v>54.1</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1.271</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>1.271</v>
+      </c>
+      <c r="M72">
+        <v>7.085558154418626</v>
+      </c>
+      <c r="N72">
+        <v>-5.814558154418626</v>
+      </c>
+      <c r="O72">
+        <v>-1.162911630883725</v>
+      </c>
+      <c r="P72">
+        <v>-4.651646523534901</v>
+      </c>
+      <c r="Q72">
+        <v>-4.651646523534901</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.3009270173711307</v>
+      </c>
+      <c r="T72">
+        <v>4.653747727809041</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.03587579051079813</v>
+      </c>
+      <c r="W72">
+        <v>0.1771096172831664</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.1793789525539906</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.2159988373095557</v>
+      </c>
+      <c r="C73">
+        <v>-13.47596017942926</v>
+      </c>
+      <c r="D73">
+        <v>22.66641550792763</v>
+      </c>
+      <c r="E73">
+        <v>38.12043809953028</v>
+      </c>
+      <c r="F73">
+        <v>39.1223756873569</v>
+      </c>
+      <c r="G73">
+        <v>2.98</v>
+      </c>
+      <c r="H73">
+        <v>54.1</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1.271</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>1.271</v>
+      </c>
+      <c r="M73">
+        <v>7.186780413767463</v>
+      </c>
+      <c r="N73">
+        <v>-5.915780413767463</v>
+      </c>
+      <c r="O73">
+        <v>-1.183156082753493</v>
+      </c>
+      <c r="P73">
+        <v>-4.73262433101397</v>
+      </c>
+      <c r="Q73">
+        <v>-4.73262433101397</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.310983121418411</v>
+      </c>
+      <c r="T73">
+        <v>4.814221787388662</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.03537049768670238</v>
+      </c>
+      <c r="W73">
+        <v>0.1772024395749528</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.1768524884335119</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.2177428373095556</v>
+      </c>
+      <c r="C74">
+        <v>-14.21662497155716</v>
+      </c>
+      <c r="D74">
+        <v>22.476770091678</v>
+      </c>
+      <c r="E74">
+        <v>38.67145747540854</v>
+      </c>
+      <c r="F74">
+        <v>39.67339506323516</v>
+      </c>
+      <c r="G74">
+        <v>2.98</v>
+      </c>
+      <c r="H74">
+        <v>54.1</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1.271</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>1.271</v>
+      </c>
+      <c r="M74">
+        <v>7.288002673116299</v>
+      </c>
+      <c r="N74">
+        <v>-6.017002673116299</v>
+      </c>
+      <c r="O74">
+        <v>-1.20340053462326</v>
+      </c>
+      <c r="P74">
+        <v>-4.81360213849304</v>
+      </c>
+      <c r="Q74">
+        <v>-4.81360213849304</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.3217575186119256</v>
+      </c>
+      <c r="T74">
+        <v>4.986158279795399</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.03487924077438708</v>
+      </c>
+      <c r="W74">
+        <v>0.1772926834697451</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.1743962038719353</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.2194868373095557</v>
+      </c>
+      <c r="C75">
+        <v>-14.95414264362586</v>
+      </c>
+      <c r="D75">
+        <v>22.29027179548757</v>
+      </c>
+      <c r="E75">
+        <v>39.22247685128681</v>
+      </c>
+      <c r="F75">
+        <v>40.22441443911343</v>
+      </c>
+      <c r="G75">
+        <v>2.98</v>
+      </c>
+      <c r="H75">
+        <v>54.1</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1.271</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1.271</v>
+      </c>
+      <c r="M75">
+        <v>7.389224932465138</v>
+      </c>
+      <c r="N75">
+        <v>-6.118224932465138</v>
+      </c>
+      <c r="O75">
+        <v>-1.223644986493028</v>
+      </c>
+      <c r="P75">
+        <v>-4.89457994597211</v>
+      </c>
+      <c r="Q75">
+        <v>-4.89457994597211</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.3333300193012563</v>
+      </c>
+      <c r="T75">
+        <v>5.170830808676711</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.03440144295555985</v>
+      </c>
+      <c r="W75">
+        <v>0.1773804549290637</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.1720072147777992</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.2212308373095557</v>
+      </c>
+      <c r="C76">
+        <v>-15.68859088953001</v>
+      </c>
+      <c r="D76">
+        <v>22.10684292546169</v>
+      </c>
+      <c r="E76">
+        <v>39.77349622716508</v>
+      </c>
+      <c r="F76">
+        <v>40.7754338149917</v>
+      </c>
+      <c r="G76">
+        <v>2.98</v>
+      </c>
+      <c r="H76">
+        <v>54.1</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1.271</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>1.271</v>
+      </c>
+      <c r="M76">
+        <v>7.490447191813976</v>
+      </c>
+      <c r="N76">
+        <v>-6.219447191813976</v>
+      </c>
+      <c r="O76">
+        <v>-1.243889438362795</v>
+      </c>
+      <c r="P76">
+        <v>-4.975557753451181</v>
+      </c>
+      <c r="Q76">
+        <v>-4.975557753451181</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.3457927123513046</v>
+      </c>
+      <c r="T76">
+        <v>5.369708916702738</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.03393655859129553</v>
+      </c>
+      <c r="W76">
+        <v>0.177465854186779</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.1696827929564776</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.2229748373095557</v>
+      </c>
+      <c r="C77">
+        <v>-16.42004486663439</v>
+      </c>
+      <c r="D77">
+        <v>21.92640832423557</v>
+      </c>
+      <c r="E77">
+        <v>40.32451560304334</v>
+      </c>
+      <c r="F77">
+        <v>41.32645319086996</v>
+      </c>
+      <c r="G77">
+        <v>2.98</v>
+      </c>
+      <c r="H77">
+        <v>54.1</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1.271</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1.271</v>
+      </c>
+      <c r="M77">
+        <v>7.591669451162812</v>
+      </c>
+      <c r="N77">
+        <v>-6.320669451162813</v>
+      </c>
+      <c r="O77">
+        <v>-1.264133890232563</v>
+      </c>
+      <c r="P77">
+        <v>-5.05653556093025</v>
+      </c>
+      <c r="Q77">
+        <v>-5.05653556093025</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.3592524208453568</v>
+      </c>
+      <c r="T77">
+        <v>5.584497273370848</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.03348407114341159</v>
+      </c>
+      <c r="W77">
+        <v>0.1775489761309553</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.1674203557170579</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.2247188373095557</v>
+      </c>
+      <c r="C78">
+        <v>-17.14857729845083</v>
+      </c>
+      <c r="D78">
+        <v>21.7488952682974</v>
+      </c>
+      <c r="E78">
+        <v>40.87553497892161</v>
+      </c>
+      <c r="F78">
+        <v>41.87747256674823</v>
+      </c>
+      <c r="G78">
+        <v>2.98</v>
+      </c>
+      <c r="H78">
+        <v>54.1</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1.271</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>1.271</v>
+      </c>
+      <c r="M78">
+        <v>7.69289171051165</v>
+      </c>
+      <c r="N78">
+        <v>-6.42189171051165</v>
+      </c>
+      <c r="O78">
+        <v>-1.28437834210233</v>
+      </c>
+      <c r="P78">
+        <v>-5.13751336840932</v>
+      </c>
+      <c r="Q78">
+        <v>-5.13751336840932</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.3738337717139134</v>
+      </c>
+      <c r="T78">
+        <v>5.817184659761301</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.03304349125994565</v>
+      </c>
+      <c r="W78">
+        <v>0.177629910655548</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.1652174562997282</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.2264628373095557</v>
+      </c>
+      <c r="C79">
+        <v>-17.87425857236759</v>
+      </c>
+      <c r="D79">
+        <v>21.57423337025891</v>
+      </c>
+      <c r="E79">
+        <v>41.42655435479988</v>
+      </c>
+      <c r="F79">
+        <v>42.4284919426265</v>
+      </c>
+      <c r="G79">
+        <v>2.98</v>
+      </c>
+      <c r="H79">
+        <v>54.1</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1.271</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>1.271</v>
+      </c>
+      <c r="M79">
+        <v>7.794113969860488</v>
+      </c>
+      <c r="N79">
+        <v>-6.523113969860488</v>
+      </c>
+      <c r="O79">
+        <v>-1.304622793972098</v>
+      </c>
+      <c r="P79">
+        <v>-5.21849117588839</v>
+      </c>
+      <c r="Q79">
+        <v>-5.21849117588839</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.3896830661362574</v>
+      </c>
+      <c r="T79">
+        <v>6.070105731924835</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.03261435500981649</v>
+      </c>
+      <c r="W79">
+        <v>0.1777087429846967</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.1630717750490823</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.2282068373095557</v>
+      </c>
+      <c r="C80">
+        <v>-18.59715683270721</v>
+      </c>
+      <c r="D80">
+        <v>21.40235448579755</v>
+      </c>
+      <c r="E80">
+        <v>41.97757373067815</v>
+      </c>
+      <c r="F80">
+        <v>42.97951131850476</v>
+      </c>
+      <c r="G80">
+        <v>2.98</v>
+      </c>
+      <c r="H80">
+        <v>54.1</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1.271</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>1.271</v>
+      </c>
+      <c r="M80">
+        <v>7.895336229209325</v>
+      </c>
+      <c r="N80">
+        <v>-6.624336229209325</v>
+      </c>
+      <c r="O80">
+        <v>-1.324867245841865</v>
+      </c>
+      <c r="P80">
+        <v>-5.29946898336746</v>
+      </c>
+      <c r="Q80">
+        <v>-5.29946898336746</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.4069732055060873</v>
+      </c>
+      <c r="T80">
+        <v>6.34601962883051</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.03219622225328038</v>
+      </c>
+      <c r="W80">
+        <v>0.1777855539720724</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.1609811112664018</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.2299508373095557</v>
+      </c>
+      <c r="C81">
+        <v>-19.31733806937129</v>
+      </c>
+      <c r="D81">
+        <v>21.23319262501174</v>
+      </c>
+      <c r="E81">
+        <v>42.52859310655641</v>
+      </c>
+      <c r="F81">
+        <v>43.53053069438303</v>
+      </c>
+      <c r="G81">
+        <v>2.98</v>
+      </c>
+      <c r="H81">
+        <v>54.1</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1.271</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>1.271</v>
+      </c>
+      <c r="M81">
+        <v>7.996558488558163</v>
+      </c>
+      <c r="N81">
+        <v>-6.725558488558163</v>
+      </c>
+      <c r="O81">
+        <v>-1.345111697711633</v>
+      </c>
+      <c r="P81">
+        <v>-5.380446790846531</v>
+      </c>
+      <c r="Q81">
+        <v>-5.380446790846531</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.4259100248159011</v>
+      </c>
+      <c r="T81">
+        <v>6.648211039727202</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.03178867513615024</v>
+      </c>
+      <c r="W81">
+        <v>0.1778604203774892</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.1589433756807511</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.2316948373095556</v>
+      </c>
+      <c r="C82">
+        <v>-20.03486620231426</v>
+      </c>
+      <c r="D82">
+        <v>21.06668386794705</v>
+      </c>
+      <c r="E82">
+        <v>43.07961248243468</v>
+      </c>
+      <c r="F82">
+        <v>44.0815500702613</v>
+      </c>
+      <c r="G82">
+        <v>2.98</v>
+      </c>
+      <c r="H82">
+        <v>54.1</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1.271</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>1.271</v>
+      </c>
+      <c r="M82">
+        <v>8.097780747907001</v>
+      </c>
+      <c r="N82">
+        <v>-6.826780747907001</v>
+      </c>
+      <c r="O82">
+        <v>-1.3653561495814</v>
+      </c>
+      <c r="P82">
+        <v>-5.461424598325601</v>
+      </c>
+      <c r="Q82">
+        <v>-5.461424598325601</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.4467405260566961</v>
+      </c>
+      <c r="T82">
+        <v>6.980621591713561</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.03139131669694836</v>
+      </c>
+      <c r="W82">
+        <v>0.1779334151227706</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.1569565834847418</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2334388373095557</v>
+      </c>
+      <c r="C83">
+        <v>-20.74980316207361</v>
+      </c>
+      <c r="D83">
+        <v>20.90276628406595</v>
+      </c>
+      <c r="E83">
+        <v>43.63063185831295</v>
+      </c>
+      <c r="F83">
+        <v>44.63256944613956</v>
+      </c>
+      <c r="G83">
+        <v>2.98</v>
+      </c>
+      <c r="H83">
+        <v>54.1</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1.271</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1.271</v>
+      </c>
+      <c r="M83">
+        <v>8.199003007255838</v>
+      </c>
+      <c r="N83">
+        <v>-6.928003007255838</v>
+      </c>
+      <c r="O83">
+        <v>-1.385600601451168</v>
+      </c>
+      <c r="P83">
+        <v>-5.542402405804671</v>
+      </c>
+      <c r="Q83">
+        <v>-5.542402405804671</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.4697637116386275</v>
+      </c>
+      <c r="T83">
+        <v>7.348022728119539</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.03100376957723296</v>
+      </c>
+      <c r="W83">
+        <v>0.1780046075286623</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.1550188478861647</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2351828373095557</v>
+      </c>
+      <c r="C84">
+        <v>-21.46220896656953</v>
+      </c>
+      <c r="D84">
+        <v>20.7413798554483</v>
+      </c>
+      <c r="E84">
+        <v>44.18165123419121</v>
+      </c>
+      <c r="F84">
+        <v>45.18358882201783</v>
+      </c>
+      <c r="G84">
+        <v>2.98</v>
+      </c>
+      <c r="H84">
+        <v>54.1</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1.271</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>1.271</v>
+      </c>
+      <c r="M84">
+        <v>8.300225266604675</v>
+      </c>
+      <c r="N84">
+        <v>-7.029225266604676</v>
+      </c>
+      <c r="O84">
+        <v>-1.405845053320935</v>
+      </c>
+      <c r="P84">
+        <v>-5.62338021328374</v>
+      </c>
+      <c r="Q84">
+        <v>-5.62338021328374</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.4953450289518846</v>
+      </c>
+      <c r="T84">
+        <v>7.75624621301507</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.03062567482629109</v>
+      </c>
+      <c r="W84">
+        <v>0.1780740635344103</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.1531283741314554</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2369268373095557</v>
+      </c>
+      <c r="C85">
+        <v>-22.17214179437399</v>
+      </c>
+      <c r="D85">
+        <v>20.58246640352211</v>
+      </c>
+      <c r="E85">
+        <v>44.73267061006948</v>
+      </c>
+      <c r="F85">
+        <v>45.7346081978961</v>
+      </c>
+      <c r="G85">
+        <v>2.98</v>
+      </c>
+      <c r="H85">
+        <v>54.1</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1.271</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>1.271</v>
+      </c>
+      <c r="M85">
+        <v>8.401447525953515</v>
+      </c>
+      <c r="N85">
+        <v>-7.130447525953515</v>
+      </c>
+      <c r="O85">
+        <v>-1.426089505190703</v>
+      </c>
+      <c r="P85">
+        <v>-5.704358020762812</v>
+      </c>
+      <c r="Q85">
+        <v>-5.704358020762812</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.5239359130078779</v>
+      </c>
+      <c r="T85">
+        <v>8.21249599025125</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.03025669079223938</v>
+      </c>
+      <c r="W85">
+        <v>0.1781418459014656</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.1512834539611969</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2386708373095557</v>
+      </c>
+      <c r="C86">
+        <v>-22.87965805463732</v>
+      </c>
+      <c r="D86">
+        <v>20.42596951913703</v>
+      </c>
+      <c r="E86">
+        <v>45.28368998594774</v>
+      </c>
+      <c r="F86">
+        <v>46.28562757377436</v>
+      </c>
+      <c r="G86">
+        <v>2.98</v>
+      </c>
+      <c r="H86">
+        <v>54.1</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1.271</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>1.271</v>
+      </c>
+      <c r="M86">
+        <v>8.502669785302349</v>
+      </c>
+      <c r="N86">
+        <v>-7.231669785302349</v>
+      </c>
+      <c r="O86">
+        <v>-1.44633395706047</v>
+      </c>
+      <c r="P86">
+        <v>-5.785335828241879</v>
+      </c>
+      <c r="Q86">
+        <v>-5.785335828241879</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.5561006575708699</v>
+      </c>
+      <c r="T86">
+        <v>8.725776989641949</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.02989649209233178</v>
+      </c>
+      <c r="W86">
+        <v>0.1782080144026386</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.1494824604616589</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2404148373095557</v>
+      </c>
+      <c r="C87">
+        <v>-23.58481245384887</v>
+      </c>
+      <c r="D87">
+        <v>20.27183449580375</v>
+      </c>
+      <c r="E87">
+        <v>45.83470936182601</v>
+      </c>
+      <c r="F87">
+        <v>46.83664694965262</v>
+      </c>
+      <c r="G87">
+        <v>2.98</v>
+      </c>
+      <c r="H87">
+        <v>54.1</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1.271</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>1.271</v>
+      </c>
+      <c r="M87">
+        <v>8.603892044651188</v>
+      </c>
+      <c r="N87">
+        <v>-7.332892044651188</v>
+      </c>
+      <c r="O87">
+        <v>-1.466578408930238</v>
+      </c>
+      <c r="P87">
+        <v>-5.86631363572095</v>
+      </c>
+      <c r="Q87">
+        <v>-5.86631363572095</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.5925540347422613</v>
+      </c>
+      <c r="T87">
+        <v>9.30749545561808</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.0295447686559514</v>
+      </c>
+      <c r="W87">
+        <v>0.1782726259979018</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.147723843279757</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2421588373095557</v>
+      </c>
+      <c r="C88">
+        <v>-24.2876580595974</v>
+      </c>
+      <c r="D88">
+        <v>20.1200082659335</v>
+      </c>
+      <c r="E88">
+        <v>46.38572873770428</v>
+      </c>
+      <c r="F88">
+        <v>47.38766632553089</v>
+      </c>
+      <c r="G88">
+        <v>2.98</v>
+      </c>
+      <c r="H88">
+        <v>54.1</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1.271</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1.271</v>
+      </c>
+      <c r="M88">
+        <v>8.705114304000025</v>
+      </c>
+      <c r="N88">
+        <v>-7.434114304000025</v>
+      </c>
+      <c r="O88">
+        <v>-1.486822860800005</v>
+      </c>
+      <c r="P88">
+        <v>-5.947291443200021</v>
+      </c>
+      <c r="Q88">
+        <v>-5.947291443200021</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.6342150372238513</v>
+      </c>
+      <c r="T88">
+        <v>9.972316559590798</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.02920122483437057</v>
+      </c>
+      <c r="W88">
+        <v>0.1783357349979261</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.1460061241718529</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2439028373095557</v>
+      </c>
+      <c r="C89">
+        <v>-24.98824636148779</v>
+      </c>
+      <c r="D89">
+        <v>19.97043933992137</v>
+      </c>
+      <c r="E89">
+        <v>46.93674811358254</v>
+      </c>
+      <c r="F89">
+        <v>47.93868570140916</v>
+      </c>
+      <c r="G89">
+        <v>2.98</v>
+      </c>
+      <c r="H89">
+        <v>54.1</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1.271</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>1.271</v>
+      </c>
+      <c r="M89">
+        <v>8.806336563348863</v>
+      </c>
+      <c r="N89">
+        <v>-7.535336563348863</v>
+      </c>
+      <c r="O89">
+        <v>-1.507067312669773</v>
+      </c>
+      <c r="P89">
+        <v>-6.02826925067909</v>
+      </c>
+      <c r="Q89">
+        <v>-6.02826925067909</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.6822854247026092</v>
+      </c>
+      <c r="T89">
+        <v>10.73941783340548</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.02886557857190654</v>
+      </c>
+      <c r="W89">
+        <v>0.1783973932163408</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.1443278928595327</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2456468373095557</v>
+      </c>
+      <c r="C90">
+        <v>-25.68662732936065</v>
+      </c>
+      <c r="D90">
+        <v>19.82307774792678</v>
+      </c>
+      <c r="E90">
+        <v>47.48776748946081</v>
+      </c>
+      <c r="F90">
+        <v>48.48970507728743</v>
+      </c>
+      <c r="G90">
+        <v>2.98</v>
+      </c>
+      <c r="H90">
+        <v>54.1</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1.271</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>1.271</v>
+      </c>
+      <c r="M90">
+        <v>8.9075588226977</v>
+      </c>
+      <c r="N90">
+        <v>-7.6365588226977</v>
+      </c>
+      <c r="O90">
+        <v>-1.52731176453954</v>
+      </c>
+      <c r="P90">
+        <v>-6.10924705815816</v>
+      </c>
+      <c r="Q90">
+        <v>-6.10924705815816</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.7383675434278268</v>
+      </c>
+      <c r="T90">
+        <v>11.6343693195226</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.02853756063358942</v>
+      </c>
+      <c r="W90">
+        <v>0.1784576501116096</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.142687803167947</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2473908373095556</v>
+      </c>
+      <c r="C91">
+        <v>-26.38284946895315</v>
+      </c>
+      <c r="D91">
+        <v>19.67787498421254</v>
+      </c>
+      <c r="E91">
+        <v>48.03878686533908</v>
+      </c>
+      <c r="F91">
+        <v>49.04072445316569</v>
+      </c>
+      <c r="G91">
+        <v>2.98</v>
+      </c>
+      <c r="H91">
+        <v>54.1</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1.271</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>1.271</v>
+      </c>
+      <c r="M91">
+        <v>9.008781082046537</v>
+      </c>
+      <c r="N91">
+        <v>-7.737781082046538</v>
+      </c>
+      <c r="O91">
+        <v>-1.547556216409308</v>
+      </c>
+      <c r="P91">
+        <v>-6.19022486563723</v>
+      </c>
+      <c r="Q91">
+        <v>-6.19022486563723</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.8046464110121745</v>
+      </c>
+      <c r="T91">
+        <v>12.69203925766102</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.02821691388489741</v>
+      </c>
+      <c r="W91">
+        <v>0.1785165529193443</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.141084569424487</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2491348373095557</v>
+      </c>
+      <c r="C92">
+        <v>-27.07695987513145</v>
+      </c>
+      <c r="D92">
+        <v>19.5347839539125</v>
+      </c>
+      <c r="E92">
+        <v>48.58980624121734</v>
+      </c>
+      <c r="F92">
+        <v>49.59174382904396</v>
+      </c>
+      <c r="G92">
+        <v>2.98</v>
+      </c>
+      <c r="H92">
+        <v>54.1</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1.271</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>1.271</v>
+      </c>
+      <c r="M92">
+        <v>9.110003341395375</v>
+      </c>
+      <c r="N92">
+        <v>-7.839003341395375</v>
+      </c>
+      <c r="O92">
+        <v>-1.567800668279075</v>
+      </c>
+      <c r="P92">
+        <v>-6.2712026731163</v>
+      </c>
+      <c r="Q92">
+        <v>-6.2712026731163</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.8841810521133922</v>
+      </c>
+      <c r="T92">
+        <v>13.96124318342712</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.02790339261950966</v>
+      </c>
+      <c r="W92">
+        <v>0.1785741467757961</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.1395169630975482</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2508788373095557</v>
+      </c>
+      <c r="C93">
+        <v>-27.76900428281733</v>
+      </c>
+      <c r="D93">
+        <v>19.3937589221049</v>
+      </c>
+      <c r="E93">
+        <v>49.14082561709561</v>
+      </c>
+      <c r="F93">
+        <v>50.14276320492223</v>
+      </c>
+      <c r="G93">
+        <v>2.98</v>
+      </c>
+      <c r="H93">
+        <v>54.1</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1.271</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>1.271</v>
+      </c>
+      <c r="M93">
+        <v>9.211225600744212</v>
+      </c>
+      <c r="N93">
+        <v>-7.940225600744212</v>
+      </c>
+      <c r="O93">
+        <v>-1.588045120148843</v>
+      </c>
+      <c r="P93">
+        <v>-6.35218048059537</v>
+      </c>
+      <c r="Q93">
+        <v>-6.35218048059537</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.9813900579037693</v>
+      </c>
+      <c r="T93">
+        <v>15.51249242603014</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.02759676193138318</v>
+      </c>
+      <c r="W93">
+        <v>0.1786304748332049</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.1379838096569158</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2526228373095556</v>
+      </c>
+      <c r="C94">
+        <v>-28.45902711572467</v>
+      </c>
+      <c r="D94">
+        <v>19.25475546507583</v>
+      </c>
+      <c r="E94">
+        <v>49.69184499297388</v>
+      </c>
+      <c r="F94">
+        <v>50.69378258080049</v>
+      </c>
+      <c r="G94">
+        <v>2.98</v>
+      </c>
+      <c r="H94">
+        <v>54.1</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1.271</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>1.271</v>
+      </c>
+      <c r="M94">
+        <v>9.312447860093052</v>
+      </c>
+      <c r="N94">
+        <v>-8.041447860093051</v>
+      </c>
+      <c r="O94">
+        <v>-1.60828957201861</v>
+      </c>
+      <c r="P94">
+        <v>-6.43315828807444</v>
+      </c>
+      <c r="Q94">
+        <v>-6.43315828807444</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>1.102901315141741</v>
+      </c>
+      <c r="T94">
+        <v>17.45155397928391</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.02729679712778118</v>
+      </c>
+      <c r="W94">
+        <v>0.1786855783676266</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.136483985638906</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2543668373095557</v>
+      </c>
+      <c r="C95">
+        <v>-29.1470715330151</v>
+      </c>
+      <c r="D95">
+        <v>19.11773042366365</v>
+      </c>
+      <c r="E95">
+        <v>50.24286436885214</v>
+      </c>
+      <c r="F95">
+        <v>51.24480195667876</v>
+      </c>
+      <c r="G95">
+        <v>2.98</v>
+      </c>
+      <c r="H95">
+        <v>54.1</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1.271</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>1.271</v>
+      </c>
+      <c r="M95">
+        <v>9.413670119441887</v>
+      </c>
+      <c r="N95">
+        <v>-8.142670119441886</v>
+      </c>
+      <c r="O95">
+        <v>-1.628534023888377</v>
+      </c>
+      <c r="P95">
+        <v>-6.514136095553509</v>
+      </c>
+      <c r="Q95">
+        <v>-6.514136095553509</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>1.259130074447704</v>
+      </c>
+      <c r="T95">
+        <v>19.94463311918161</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.02700328318017064</v>
+      </c>
+      <c r="W95">
+        <v>0.1787394968798026</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.1350164159008532</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2561108373095557</v>
+      </c>
+      <c r="C96">
+        <v>-29.83317947397551</v>
+      </c>
+      <c r="D96">
+        <v>18.98264185858151</v>
+      </c>
+      <c r="E96">
+        <v>50.79388374473041</v>
+      </c>
+      <c r="F96">
+        <v>51.79582133255703</v>
+      </c>
+      <c r="G96">
+        <v>2.98</v>
+      </c>
+      <c r="H96">
+        <v>54.1</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>1.271</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>1.271</v>
+      </c>
+      <c r="M96">
+        <v>9.514892378790726</v>
+      </c>
+      <c r="N96">
+        <v>-8.243892378790726</v>
+      </c>
+      <c r="O96">
+        <v>-1.648778475758145</v>
+      </c>
+      <c r="P96">
+        <v>-6.595113903032581</v>
+      </c>
+      <c r="Q96">
+        <v>-6.595113903032581</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.467435086855655</v>
+      </c>
+      <c r="T96">
+        <v>23.26873863904522</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.02671601421016882</v>
+      </c>
+      <c r="W96">
+        <v>0.178792268189592</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.1335800710508441</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2578548373095557</v>
+      </c>
+      <c r="C97">
+        <v>-30.51739170081462</v>
+      </c>
+      <c r="D97">
+        <v>18.84944900762067</v>
+      </c>
+      <c r="E97">
+        <v>51.34490312060868</v>
+      </c>
+      <c r="F97">
+        <v>52.34684070843529</v>
+      </c>
+      <c r="G97">
+        <v>2.98</v>
+      </c>
+      <c r="H97">
+        <v>54.1</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1.271</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>1.271</v>
+      </c>
+      <c r="M97">
+        <v>9.616114638139564</v>
+      </c>
+      <c r="N97">
+        <v>-8.345114638139563</v>
+      </c>
+      <c r="O97">
+        <v>-1.669022927627913</v>
+      </c>
+      <c r="P97">
+        <v>-6.676091710511651</v>
+      </c>
+      <c r="Q97">
+        <v>-6.676091710511651</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.759062104226787</v>
+      </c>
+      <c r="T97">
+        <v>27.92248636685428</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.02643479300795652</v>
+      </c>
+      <c r="W97">
+        <v>0.1788439285244384</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.1321739650397826</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2595988373095557</v>
+      </c>
+      <c r="C98">
+        <v>-31.19974783967045</v>
+      </c>
+      <c r="D98">
+        <v>18.71811224464309</v>
+      </c>
+      <c r="E98">
+        <v>51.89592249648693</v>
+      </c>
+      <c r="F98">
+        <v>52.89786008431355</v>
+      </c>
+      <c r="G98">
+        <v>2.98</v>
+      </c>
+      <c r="H98">
+        <v>54.1</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1.271</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>1.271</v>
+      </c>
+      <c r="M98">
+        <v>9.7173368974884</v>
+      </c>
+      <c r="N98">
+        <v>-8.446336897488399</v>
+      </c>
+      <c r="O98">
+        <v>-1.68926737949768</v>
+      </c>
+      <c r="P98">
+        <v>-6.757069517990719</v>
+      </c>
+      <c r="Q98">
+        <v>-6.757069517990719</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>2.196502630283478</v>
+      </c>
+      <c r="T98">
+        <v>34.90310795856777</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.02615943058079031</v>
+      </c>
+      <c r="W98">
+        <v>0.1788945126023088</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.1307971529039516</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2613428373095557</v>
+      </c>
+      <c r="C99">
+        <v>-31.88028641991542</v>
+      </c>
+      <c r="D99">
+        <v>18.5885930402764</v>
+      </c>
+      <c r="E99">
+        <v>52.4469418723652</v>
+      </c>
+      <c r="F99">
+        <v>53.44887946019182</v>
+      </c>
+      <c r="G99">
+        <v>2.98</v>
+      </c>
+      <c r="H99">
+        <v>54.1</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1.271</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>1.271</v>
+      </c>
+      <c r="M99">
+        <v>9.818559156837237</v>
+      </c>
+      <c r="N99">
+        <v>-8.547559156837236</v>
+      </c>
+      <c r="O99">
+        <v>-1.709511831367447</v>
+      </c>
+      <c r="P99">
+        <v>-6.838047325469789</v>
+      </c>
+      <c r="Q99">
+        <v>-6.838047325469789</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>2.925570173711305</v>
+      </c>
+      <c r="T99">
+        <v>46.53747727809037</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.02588974572944196</v>
+      </c>
+      <c r="W99">
+        <v>0.1789440537095015</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.1294487286472098</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2630868373095557</v>
+      </c>
+      <c r="C100">
+        <v>-32.55904491184051</v>
+      </c>
+      <c r="D100">
+        <v>18.46085392422958</v>
+      </c>
+      <c r="E100">
+        <v>52.99796124824347</v>
+      </c>
+      <c r="F100">
+        <v>53.99989883607009</v>
+      </c>
+      <c r="G100">
+        <v>2.98</v>
+      </c>
+      <c r="H100">
+        <v>54.1</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>1.271</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>1.271</v>
+      </c>
+      <c r="M100">
+        <v>9.919781416186074</v>
+      </c>
+      <c r="N100">
+        <v>-8.648781416186074</v>
+      </c>
+      <c r="O100">
+        <v>-1.729756283237215</v>
+      </c>
+      <c r="P100">
+        <v>-6.919025132948859</v>
+      </c>
+      <c r="Q100">
+        <v>-6.919025132948859</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>4.383705260566956</v>
+      </c>
+      <c r="T100">
+        <v>69.80621591713555</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.02562556465057009</v>
+      </c>
+      <c r="W100">
+        <v>0.1789925837736903</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.1281278232528505</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2648308373095557</v>
+      </c>
+      <c r="C101">
+        <v>-33.23605976279661</v>
+      </c>
+      <c r="D101">
+        <v>18.33485844915173</v>
+      </c>
+      <c r="E101">
+        <v>53.54898062412173</v>
+      </c>
+      <c r="F101">
+        <v>54.55091821194835</v>
+      </c>
+      <c r="G101">
+        <v>2.98</v>
+      </c>
+      <c r="H101">
+        <v>54.1</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1.271</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>1.271</v>
+      </c>
+      <c r="M101">
+        <v>10.02100367553491</v>
+      </c>
+      <c r="N101">
+        <v>-8.750003675534911</v>
+      </c>
+      <c r="O101">
+        <v>-1.750000735106982</v>
+      </c>
+      <c r="P101">
+        <v>-7.000002940427929</v>
+      </c>
+      <c r="Q101">
+        <v>-7.000002940427929</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>8.758110521133913</v>
+      </c>
+      <c r="T101">
+        <v>139.6124318342711</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.0253667205631906</v>
+      </c>
+      <c r="W101">
+        <v>0.1790401334325419</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.126833602815953</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
